--- a/4-childrens-series/harry-potter.xlsx
+++ b/4-childrens-series/harry-potter.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{35C383FA-8139-7145-A3DE-90F155102551}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E7199F1-5AC3-0E4A-B4CF-55430407CE92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30320" yWindow="1460" windowWidth="17140" windowHeight="23620" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
+    <workbookView xWindow="23300" yWindow="1460" windowWidth="24160" windowHeight="23620" activeTab="1" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
+    <sheet name="Box Office" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="18">
   <si>
     <t>Published Date</t>
   </si>
@@ -63,12 +63,31 @@
   <si>
     <t>Sixth Closes: 2009-12-17</t>
   </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Half-Blood Prince</t>
+  </si>
+  <si>
+    <t>Deathly Hallows Pt. 1</t>
+  </si>
+  <si>
+    <t>Deathly Hallows Pt. 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
@@ -112,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -121,6 +140,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E2E8DD-A8F5-4740-B8E8-9F99CB838420}">
   <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A156" workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
@@ -8572,4 +8592,4754 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF899AB-7560-0D47-989C-4F7AF6A72502}">
+  <dimension ref="A1:C430"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="C301" sqref="C301"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>40009</v>
+      </c>
+      <c r="B2" s="8">
+        <v>58175412</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>40010</v>
+      </c>
+      <c r="B3" s="8">
+        <v>22011215</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>40011</v>
+      </c>
+      <c r="B4" s="8">
+        <v>26820572</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>40012</v>
+      </c>
+      <c r="B5" s="8">
+        <v>29234224</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>40013</v>
+      </c>
+      <c r="B6" s="8">
+        <v>21780931</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>40014</v>
+      </c>
+      <c r="B7" s="8">
+        <v>9924409</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>40015</v>
+      </c>
+      <c r="B8" s="8">
+        <v>9511151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>40016</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7518238</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>40017</v>
+      </c>
+      <c r="B10" s="8">
+        <v>6857479</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>40018</v>
+      </c>
+      <c r="B11" s="8">
+        <v>9334221</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>40019</v>
+      </c>
+      <c r="B12" s="8">
+        <v>11192996</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>40020</v>
+      </c>
+      <c r="B13" s="8">
+        <v>8934970</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>40021</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4023172</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>40022</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4019368</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>40023</v>
+      </c>
+      <c r="B16" s="8">
+        <v>4582395</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>40024</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3842107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>40025</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5375629</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>40026</v>
+      </c>
+      <c r="B19" s="8">
+        <v>6755356</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>40027</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5778400</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>40028</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2518379</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>40029</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2420240</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>40030</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2192352</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>40031</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2117068</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>40032</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2581839</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>40033</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3475562</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>40034</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2870948</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>40035</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1291373</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>40036</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1316315</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>40037</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1153422</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>40038</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1128210</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>40039</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1455046</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>40040</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2045072</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>40041</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1640954</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>40042</v>
+      </c>
+      <c r="B35" s="8">
+        <v>737247</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>40043</v>
+      </c>
+      <c r="B36" s="8">
+        <v>759364</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>40044</v>
+      </c>
+      <c r="B37" s="8">
+        <v>696426</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>40045</v>
+      </c>
+      <c r="B38" s="8">
+        <v>688313</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>40046</v>
+      </c>
+      <c r="B39" s="8">
+        <v>971679</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>40047</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1435899</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40048</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1070571</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40049</v>
+      </c>
+      <c r="B42" s="8">
+        <v>406226</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>40050</v>
+      </c>
+      <c r="B43" s="8">
+        <v>406395</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>40051</v>
+      </c>
+      <c r="B44" s="8">
+        <v>388204</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>40052</v>
+      </c>
+      <c r="B45" s="8">
+        <v>352303</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>40053</v>
+      </c>
+      <c r="B46" s="8">
+        <v>639772</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>40054</v>
+      </c>
+      <c r="B47" s="8">
+        <v>1122277</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>40055</v>
+      </c>
+      <c r="B48" s="8">
+        <v>704374</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>40056</v>
+      </c>
+      <c r="B49" s="8">
+        <v>228130</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>40057</v>
+      </c>
+      <c r="B50" s="8">
+        <v>221140</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>40058</v>
+      </c>
+      <c r="B51" s="8">
+        <v>197003</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>40059</v>
+      </c>
+      <c r="B52" s="8">
+        <v>207770</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>40060</v>
+      </c>
+      <c r="B53" s="8">
+        <v>402844</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>40061</v>
+      </c>
+      <c r="B54" s="8">
+        <v>682469</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>40062</v>
+      </c>
+      <c r="B55" s="8">
+        <v>742827</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>40063</v>
+      </c>
+      <c r="B56" s="8">
+        <v>674108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>40064</v>
+      </c>
+      <c r="B57" s="8">
+        <v>128230</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>40065</v>
+      </c>
+      <c r="B58" s="8">
+        <v>97144</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>40066</v>
+      </c>
+      <c r="B59" s="8">
+        <v>96478</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>40067</v>
+      </c>
+      <c r="B60" s="8">
+        <v>219124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>40068</v>
+      </c>
+      <c r="B61" s="8">
+        <v>433453</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>40069</v>
+      </c>
+      <c r="B62" s="8">
+        <v>255905</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>40070</v>
+      </c>
+      <c r="B63" s="8">
+        <v>71452</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>40071</v>
+      </c>
+      <c r="B64" s="8">
+        <v>73222</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>40072</v>
+      </c>
+      <c r="B65" s="8">
+        <v>77408</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>40073</v>
+      </c>
+      <c r="B66" s="8">
+        <v>82526</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>40074</v>
+      </c>
+      <c r="B67" s="8">
+        <v>102477</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>40075</v>
+      </c>
+      <c r="B68" s="8">
+        <v>204954</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>40076</v>
+      </c>
+      <c r="B69" s="8">
+        <v>119556</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>40077</v>
+      </c>
+      <c r="B70" s="8">
+        <v>33476</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>40078</v>
+      </c>
+      <c r="B71" s="8">
+        <v>31802</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>40079</v>
+      </c>
+      <c r="B72" s="8">
+        <v>27350</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>40080</v>
+      </c>
+      <c r="B73" s="8">
+        <v>27076</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>40081</v>
+      </c>
+      <c r="B74" s="8">
+        <v>69662</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>40082</v>
+      </c>
+      <c r="B75" s="8">
+        <v>121458</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>40083</v>
+      </c>
+      <c r="B76" s="8">
+        <v>80710</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>40084</v>
+      </c>
+      <c r="B77" s="8">
+        <v>23437</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>40085</v>
+      </c>
+      <c r="B78" s="8">
+        <v>20458</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>40086</v>
+      </c>
+      <c r="B79" s="8">
+        <v>21276</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>40087</v>
+      </c>
+      <c r="B80" s="8">
+        <v>23680</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>40088</v>
+      </c>
+      <c r="B81" s="8">
+        <v>44593</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>40089</v>
+      </c>
+      <c r="B82" s="8">
+        <v>80313</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>40090</v>
+      </c>
+      <c r="B83" s="8">
+        <v>50472</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>40091</v>
+      </c>
+      <c r="B84" s="8">
+        <v>15387</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>40092</v>
+      </c>
+      <c r="B85" s="8">
+        <v>13848</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>40093</v>
+      </c>
+      <c r="B86" s="8">
+        <v>13526</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>40094</v>
+      </c>
+      <c r="B87" s="8">
+        <v>15961</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>40095</v>
+      </c>
+      <c r="B88" s="8">
+        <v>107182</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>40096</v>
+      </c>
+      <c r="B89" s="8">
+        <v>176520</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>40097</v>
+      </c>
+      <c r="B90" s="8">
+        <v>124735</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>40098</v>
+      </c>
+      <c r="B91" s="8">
+        <v>61869</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>40099</v>
+      </c>
+      <c r="B92" s="8">
+        <v>39335</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>40100</v>
+      </c>
+      <c r="B93" s="8">
+        <v>38785</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>40101</v>
+      </c>
+      <c r="B94" s="8">
+        <v>40835</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>40102</v>
+      </c>
+      <c r="B95" s="8">
+        <v>79275</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>40103</v>
+      </c>
+      <c r="B96" s="8">
+        <v>122906</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>40104</v>
+      </c>
+      <c r="B97" s="8">
+        <v>71160</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>40105</v>
+      </c>
+      <c r="B98" s="8">
+        <v>21348</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>40106</v>
+      </c>
+      <c r="B99" s="8">
+        <v>21588</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>40107</v>
+      </c>
+      <c r="B100" s="8">
+        <v>19897</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>40108</v>
+      </c>
+      <c r="B101" s="8">
+        <v>22085</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>40109</v>
+      </c>
+      <c r="B102" s="8">
+        <v>52884</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>40110</v>
+      </c>
+      <c r="B103" s="8">
+        <v>79083</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>40111</v>
+      </c>
+      <c r="B104" s="8">
+        <v>49835</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>40112</v>
+      </c>
+      <c r="B105" s="8">
+        <v>12958</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>40113</v>
+      </c>
+      <c r="B106" s="8">
+        <v>14001</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>40114</v>
+      </c>
+      <c r="B107" s="8">
+        <v>12961</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>40115</v>
+      </c>
+      <c r="B108" s="8">
+        <v>14982</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>40116</v>
+      </c>
+      <c r="B109" s="8">
+        <v>31471</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>40117</v>
+      </c>
+      <c r="B110" s="8">
+        <v>34101</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>40118</v>
+      </c>
+      <c r="B111" s="8">
+        <v>36893</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>40119</v>
+      </c>
+      <c r="B112" s="8">
+        <v>10699</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>40120</v>
+      </c>
+      <c r="B113" s="8">
+        <v>11555</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>40121</v>
+      </c>
+      <c r="B114" s="8">
+        <v>10398</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>40122</v>
+      </c>
+      <c r="B115" s="8">
+        <v>12597</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>40123</v>
+      </c>
+      <c r="B116" s="8">
+        <v>23974</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>40124</v>
+      </c>
+      <c r="B117" s="8">
+        <v>37933</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>40125</v>
+      </c>
+      <c r="B118" s="8">
+        <v>22819</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>40126</v>
+      </c>
+      <c r="B119" s="8">
+        <v>7259</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>40127</v>
+      </c>
+      <c r="B120" s="8">
+        <v>9162</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>40128</v>
+      </c>
+      <c r="B121" s="8">
+        <v>15691</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>40129</v>
+      </c>
+      <c r="B122" s="8">
+        <v>7592</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>40130</v>
+      </c>
+      <c r="B123" s="8">
+        <v>15693</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>40131</v>
+      </c>
+      <c r="B124" s="8">
+        <v>28928</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>40132</v>
+      </c>
+      <c r="B125" s="8">
+        <v>17289</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>40133</v>
+      </c>
+      <c r="B126" s="8">
+        <v>5433</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>40134</v>
+      </c>
+      <c r="B127" s="8">
+        <v>5025</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>40135</v>
+      </c>
+      <c r="B128" s="8">
+        <v>6669</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>40136</v>
+      </c>
+      <c r="B129" s="8">
+        <v>4535</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>40137</v>
+      </c>
+      <c r="B130" s="8">
+        <v>10310</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>40138</v>
+      </c>
+      <c r="B131" s="8">
+        <v>15873</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>40139</v>
+      </c>
+      <c r="B132" s="8">
+        <v>8951</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>40140</v>
+      </c>
+      <c r="B133" s="8">
+        <v>3690</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>40141</v>
+      </c>
+      <c r="B134" s="8">
+        <v>4454</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>40142</v>
+      </c>
+      <c r="B135" s="8">
+        <v>6486</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>40143</v>
+      </c>
+      <c r="B136" s="8">
+        <v>5101</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>40144</v>
+      </c>
+      <c r="B137" s="8">
+        <v>12941</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>40145</v>
+      </c>
+      <c r="B138" s="8">
+        <v>14025</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>40146</v>
+      </c>
+      <c r="B139" s="8">
+        <v>7858</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>40147</v>
+      </c>
+      <c r="B140" s="8">
+        <v>2505</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>40148</v>
+      </c>
+      <c r="B141" s="8">
+        <v>2630</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>40149</v>
+      </c>
+      <c r="B142" s="8">
+        <v>1495</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>40150</v>
+      </c>
+      <c r="B143" s="8">
+        <v>2963</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>40151</v>
+      </c>
+      <c r="B144" s="8">
+        <v>4881</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>40152</v>
+      </c>
+      <c r="B145" s="8">
+        <v>7897</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>40153</v>
+      </c>
+      <c r="B146" s="8">
+        <v>5269</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>40154</v>
+      </c>
+      <c r="B147" s="8">
+        <v>1074</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>40155</v>
+      </c>
+      <c r="B148" s="8">
+        <v>816</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>40156</v>
+      </c>
+      <c r="B149" s="8">
+        <v>936</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>40157</v>
+      </c>
+      <c r="B150" s="8">
+        <v>955</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>40158</v>
+      </c>
+      <c r="B151" s="8">
+        <v>1476</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>40159</v>
+      </c>
+      <c r="B152" s="8">
+        <v>2341</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>40160</v>
+      </c>
+      <c r="B153" s="8">
+        <v>1333</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>40161</v>
+      </c>
+      <c r="B154" s="8">
+        <v>454</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>40162</v>
+      </c>
+      <c r="B155" s="8">
+        <v>703</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>40163</v>
+      </c>
+      <c r="B156" s="8">
+        <v>493</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>40164</v>
+      </c>
+      <c r="B157" s="8">
+        <v>567</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>40501</v>
+      </c>
+      <c r="B158" s="8">
+        <v>61684550</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>40502</v>
+      </c>
+      <c r="B159" s="8">
+        <v>38226254</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>40503</v>
+      </c>
+      <c r="B160" s="8">
+        <v>25106568</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>40504</v>
+      </c>
+      <c r="B161" s="8">
+        <v>8785460</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>40505</v>
+      </c>
+      <c r="B162" s="8">
+        <v>10264353</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>40506</v>
+      </c>
+      <c r="B163" s="8">
+        <v>14425863</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>40507</v>
+      </c>
+      <c r="B164" s="8">
+        <v>11475980</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>40508</v>
+      </c>
+      <c r="B165" s="8">
+        <v>20832651</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>40509</v>
+      </c>
+      <c r="B166" s="8">
+        <v>18728940</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>40510</v>
+      </c>
+      <c r="B167" s="8">
+        <v>9525510</v>
+      </c>
+      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>40511</v>
+      </c>
+      <c r="B168" s="8">
+        <v>2339162</v>
+      </c>
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>40512</v>
+      </c>
+      <c r="B169" s="8">
+        <v>2278481</v>
+      </c>
+      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>40513</v>
+      </c>
+      <c r="B170" s="8">
+        <v>1935386</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>40514</v>
+      </c>
+      <c r="B171" s="8">
+        <v>1891483</v>
+      </c>
+      <c r="C171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>40515</v>
+      </c>
+      <c r="B172" s="8">
+        <v>4801767</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>40516</v>
+      </c>
+      <c r="B173" s="8">
+        <v>7446074</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>40517</v>
+      </c>
+      <c r="B174" s="8">
+        <v>4770634</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>40518</v>
+      </c>
+      <c r="B175" s="8">
+        <v>1138366</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>40519</v>
+      </c>
+      <c r="B176" s="8">
+        <v>1279219</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>40520</v>
+      </c>
+      <c r="B177" s="8">
+        <v>1129638</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>40521</v>
+      </c>
+      <c r="B178" s="8">
+        <v>1122066</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>40522</v>
+      </c>
+      <c r="B179" s="8">
+        <v>2397340</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>40523</v>
+      </c>
+      <c r="B180" s="8">
+        <v>3751487</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>40524</v>
+      </c>
+      <c r="B181" s="8">
+        <v>2335489</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>40525</v>
+      </c>
+      <c r="B182" s="8">
+        <v>721128</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>40526</v>
+      </c>
+      <c r="B183" s="8">
+        <v>803098</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>40527</v>
+      </c>
+      <c r="B184" s="8">
+        <v>727307</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>40528</v>
+      </c>
+      <c r="B185" s="8">
+        <v>777003</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>40529</v>
+      </c>
+      <c r="B186" s="8">
+        <v>1320555</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>40530</v>
+      </c>
+      <c r="B187" s="8">
+        <v>2080471</v>
+      </c>
+      <c r="C187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>40531</v>
+      </c>
+      <c r="B188" s="8">
+        <v>1621335</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>40532</v>
+      </c>
+      <c r="B189" s="8">
+        <v>963017</v>
+      </c>
+      <c r="C189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>40533</v>
+      </c>
+      <c r="B190" s="8">
+        <v>1122149</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>40534</v>
+      </c>
+      <c r="B191" s="8">
+        <v>903132</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>40535</v>
+      </c>
+      <c r="B192" s="8">
+        <v>1106371</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>40536</v>
+      </c>
+      <c r="B193" s="8">
+        <v>709399</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>40537</v>
+      </c>
+      <c r="B194" s="8">
+        <v>1070674</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>40538</v>
+      </c>
+      <c r="B195" s="8">
+        <v>1396275</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>40539</v>
+      </c>
+      <c r="B196" s="8">
+        <v>1437671</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>40540</v>
+      </c>
+      <c r="B197" s="8">
+        <v>1394297</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>40541</v>
+      </c>
+      <c r="B198" s="8">
+        <v>1487698</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>40542</v>
+      </c>
+      <c r="B199" s="8">
+        <v>1567215</v>
+      </c>
+      <c r="C199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>40543</v>
+      </c>
+      <c r="B200" s="8">
+        <v>1348611</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>40544</v>
+      </c>
+      <c r="B201" s="8">
+        <v>1871362</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>40545</v>
+      </c>
+      <c r="B202" s="8">
+        <v>1431726</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>40546</v>
+      </c>
+      <c r="B203" s="8">
+        <v>625496</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>40547</v>
+      </c>
+      <c r="B204" s="8">
+        <v>448002</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>40548</v>
+      </c>
+      <c r="B205" s="8">
+        <v>361183</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>40549</v>
+      </c>
+      <c r="B206" s="8">
+        <v>340476</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>40550</v>
+      </c>
+      <c r="B207" s="8">
+        <v>643008</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>40551</v>
+      </c>
+      <c r="B208" s="8">
+        <v>1069215</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>40552</v>
+      </c>
+      <c r="B209" s="8">
+        <v>641175</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>40553</v>
+      </c>
+      <c r="B210" s="8">
+        <v>171343</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>40554</v>
+      </c>
+      <c r="B211" s="8">
+        <v>188434</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>40555</v>
+      </c>
+      <c r="B212" s="8">
+        <v>184321</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>40556</v>
+      </c>
+      <c r="B213" s="8">
+        <v>198400</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>40557</v>
+      </c>
+      <c r="B214" s="8">
+        <v>346442</v>
+      </c>
+      <c r="C214" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>40558</v>
+      </c>
+      <c r="B215" s="8">
+        <v>580245</v>
+      </c>
+      <c r="C215" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>40559</v>
+      </c>
+      <c r="B216" s="8">
+        <v>472517</v>
+      </c>
+      <c r="C216" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>40560</v>
+      </c>
+      <c r="B217" s="8">
+        <v>349873</v>
+      </c>
+      <c r="C217" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>40561</v>
+      </c>
+      <c r="B218" s="8">
+        <v>104116</v>
+      </c>
+      <c r="C218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>40562</v>
+      </c>
+      <c r="B219" s="8">
+        <v>91623</v>
+      </c>
+      <c r="C219" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>40563</v>
+      </c>
+      <c r="B220" s="8">
+        <v>93413</v>
+      </c>
+      <c r="C220" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>40564</v>
+      </c>
+      <c r="B221" s="8">
+        <v>231627</v>
+      </c>
+      <c r="C221" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>40565</v>
+      </c>
+      <c r="B222" s="8">
+        <v>448222</v>
+      </c>
+      <c r="C222" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>40566</v>
+      </c>
+      <c r="B223" s="8">
+        <v>218422</v>
+      </c>
+      <c r="C223" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>40567</v>
+      </c>
+      <c r="B224" s="8">
+        <v>70012</v>
+      </c>
+      <c r="C224" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>40568</v>
+      </c>
+      <c r="B225" s="8">
+        <v>72421</v>
+      </c>
+      <c r="C225" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>40569</v>
+      </c>
+      <c r="B226" s="8">
+        <v>62103</v>
+      </c>
+      <c r="C226" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>40570</v>
+      </c>
+      <c r="B227" s="8">
+        <v>77259</v>
+      </c>
+      <c r="C227" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>40571</v>
+      </c>
+      <c r="B228" s="8">
+        <v>137347</v>
+      </c>
+      <c r="C228" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>40572</v>
+      </c>
+      <c r="B229" s="8">
+        <v>282448</v>
+      </c>
+      <c r="C229" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>40573</v>
+      </c>
+      <c r="B230" s="8">
+        <v>181134</v>
+      </c>
+      <c r="C230" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>40574</v>
+      </c>
+      <c r="B231" s="8">
+        <v>41473</v>
+      </c>
+      <c r="C231" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>40575</v>
+      </c>
+      <c r="B232" s="8">
+        <v>38156</v>
+      </c>
+      <c r="C232" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>40576</v>
+      </c>
+      <c r="B233" s="8">
+        <v>40590</v>
+      </c>
+      <c r="C233" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>40577</v>
+      </c>
+      <c r="B234" s="8">
+        <v>44125</v>
+      </c>
+      <c r="C234" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>40578</v>
+      </c>
+      <c r="B235" s="8">
+        <v>96819</v>
+      </c>
+      <c r="C235" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>40579</v>
+      </c>
+      <c r="B236" s="8">
+        <v>197542</v>
+      </c>
+      <c r="C236" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>40580</v>
+      </c>
+      <c r="B237" s="8">
+        <v>79017</v>
+      </c>
+      <c r="C237" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>40581</v>
+      </c>
+      <c r="B238" s="8">
+        <v>30607</v>
+      </c>
+      <c r="C238" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>40582</v>
+      </c>
+      <c r="B239" s="8">
+        <v>30525</v>
+      </c>
+      <c r="C239" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>40583</v>
+      </c>
+      <c r="B240" s="8">
+        <v>31440</v>
+      </c>
+      <c r="C240" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>40584</v>
+      </c>
+      <c r="B241" s="8">
+        <v>36470</v>
+      </c>
+      <c r="C241" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>40585</v>
+      </c>
+      <c r="B242" s="8">
+        <v>110926</v>
+      </c>
+      <c r="C242" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>40586</v>
+      </c>
+      <c r="B243" s="8">
+        <v>213252</v>
+      </c>
+      <c r="C243" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>40587</v>
+      </c>
+      <c r="B244" s="8">
+        <v>140974</v>
+      </c>
+      <c r="C244" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>40588</v>
+      </c>
+      <c r="B245" s="8">
+        <v>64849</v>
+      </c>
+      <c r="C245" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>40589</v>
+      </c>
+      <c r="B246" s="8">
+        <v>40855</v>
+      </c>
+      <c r="C246" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>40590</v>
+      </c>
+      <c r="B247" s="8">
+        <v>39630</v>
+      </c>
+      <c r="C247" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>40591</v>
+      </c>
+      <c r="B248" s="8">
+        <v>42007</v>
+      </c>
+      <c r="C248" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>40592</v>
+      </c>
+      <c r="B249" s="8">
+        <v>85429</v>
+      </c>
+      <c r="C249" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>40593</v>
+      </c>
+      <c r="B250" s="8">
+        <v>150615</v>
+      </c>
+      <c r="C250" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>40594</v>
+      </c>
+      <c r="B251" s="8">
+        <v>123001</v>
+      </c>
+      <c r="C251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>40595</v>
+      </c>
+      <c r="B252" s="8">
+        <v>87344</v>
+      </c>
+      <c r="C252" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>40596</v>
+      </c>
+      <c r="B253" s="8">
+        <v>32842</v>
+      </c>
+      <c r="C253" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>40597</v>
+      </c>
+      <c r="B254" s="8">
+        <v>30872</v>
+      </c>
+      <c r="C254" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>40598</v>
+      </c>
+      <c r="B255" s="8">
+        <v>33341</v>
+      </c>
+      <c r="C255" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>40599</v>
+      </c>
+      <c r="B256" s="8">
+        <v>62255</v>
+      </c>
+      <c r="C256" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>40600</v>
+      </c>
+      <c r="B257" s="8">
+        <v>109134</v>
+      </c>
+      <c r="C257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>40601</v>
+      </c>
+      <c r="B258" s="8">
+        <v>68228</v>
+      </c>
+      <c r="C258" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>40602</v>
+      </c>
+      <c r="B259" s="8">
+        <v>17931</v>
+      </c>
+      <c r="C259" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>40603</v>
+      </c>
+      <c r="B260" s="8">
+        <v>19116</v>
+      </c>
+      <c r="C260" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>40604</v>
+      </c>
+      <c r="B261" s="8">
+        <v>19057</v>
+      </c>
+      <c r="C261" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>40605</v>
+      </c>
+      <c r="B262" s="8">
+        <v>21825</v>
+      </c>
+      <c r="C262" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>40606</v>
+      </c>
+      <c r="B263" s="8">
+        <v>36290</v>
+      </c>
+      <c r="C263" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>40607</v>
+      </c>
+      <c r="B264" s="8">
+        <v>72715</v>
+      </c>
+      <c r="C264" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>40608</v>
+      </c>
+      <c r="B265" s="8">
+        <v>49418</v>
+      </c>
+      <c r="C265" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>40609</v>
+      </c>
+      <c r="B266" s="8">
+        <v>13343</v>
+      </c>
+      <c r="C266" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>40610</v>
+      </c>
+      <c r="B267" s="8">
+        <v>12676</v>
+      </c>
+      <c r="C267" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>40611</v>
+      </c>
+      <c r="B268" s="8">
+        <v>11916</v>
+      </c>
+      <c r="C268" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>40612</v>
+      </c>
+      <c r="B269" s="8">
+        <v>14656</v>
+      </c>
+      <c r="C269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>40613</v>
+      </c>
+      <c r="B270" s="8">
+        <v>27359</v>
+      </c>
+      <c r="C270" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>40614</v>
+      </c>
+      <c r="B271" s="8">
+        <v>42002</v>
+      </c>
+      <c r="C271" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>40615</v>
+      </c>
+      <c r="B272" s="8">
+        <v>29494</v>
+      </c>
+      <c r="C272" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>40616</v>
+      </c>
+      <c r="B273" s="8">
+        <v>10183</v>
+      </c>
+      <c r="C273" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>40617</v>
+      </c>
+      <c r="B274" s="8">
+        <v>11914</v>
+      </c>
+      <c r="C274" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>40618</v>
+      </c>
+      <c r="B275" s="8">
+        <v>10961</v>
+      </c>
+      <c r="C275" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>40619</v>
+      </c>
+      <c r="B276" s="8">
+        <v>11549</v>
+      </c>
+      <c r="C276" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>40620</v>
+      </c>
+      <c r="B277" s="8">
+        <v>19243</v>
+      </c>
+      <c r="C277" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>40621</v>
+      </c>
+      <c r="B278" s="8">
+        <v>28455</v>
+      </c>
+      <c r="C278" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>40622</v>
+      </c>
+      <c r="B279" s="8">
+        <v>19437</v>
+      </c>
+      <c r="C279" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>40623</v>
+      </c>
+      <c r="B280" s="8">
+        <v>7969</v>
+      </c>
+      <c r="C280" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>40624</v>
+      </c>
+      <c r="B281" s="8">
+        <v>7571</v>
+      </c>
+      <c r="C281" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>40625</v>
+      </c>
+      <c r="B282" s="8">
+        <v>7390</v>
+      </c>
+      <c r="C282" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>40626</v>
+      </c>
+      <c r="B283" s="8">
+        <v>8129</v>
+      </c>
+      <c r="C283" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>40627</v>
+      </c>
+      <c r="B284" s="8">
+        <v>15553</v>
+      </c>
+      <c r="C284" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>40628</v>
+      </c>
+      <c r="B285" s="8">
+        <v>25721</v>
+      </c>
+      <c r="C285" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>40629</v>
+      </c>
+      <c r="B286" s="8">
+        <v>17531</v>
+      </c>
+      <c r="C286" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>40630</v>
+      </c>
+      <c r="B287" s="8">
+        <v>8065</v>
+      </c>
+      <c r="C287" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>40631</v>
+      </c>
+      <c r="B288" s="8">
+        <v>6136</v>
+      </c>
+      <c r="C288" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>40632</v>
+      </c>
+      <c r="B289" s="8">
+        <v>6381</v>
+      </c>
+      <c r="C289" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B290" s="8">
+        <v>7857</v>
+      </c>
+      <c r="C290" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>40634</v>
+      </c>
+      <c r="B291" s="8">
+        <v>10165</v>
+      </c>
+      <c r="C291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>40635</v>
+      </c>
+      <c r="B292" s="8">
+        <v>15697</v>
+      </c>
+      <c r="C292" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>40636</v>
+      </c>
+      <c r="B293" s="8">
+        <v>10919</v>
+      </c>
+      <c r="C293" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>40637</v>
+      </c>
+      <c r="B294" s="8">
+        <v>5098</v>
+      </c>
+      <c r="C294" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>40638</v>
+      </c>
+      <c r="B295" s="8">
+        <v>6117</v>
+      </c>
+      <c r="C295" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>40639</v>
+      </c>
+      <c r="B296" s="8">
+        <v>4465</v>
+      </c>
+      <c r="C296" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>40640</v>
+      </c>
+      <c r="B297" s="8">
+        <v>4956</v>
+      </c>
+      <c r="C297" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>40739</v>
+      </c>
+      <c r="B298" s="8">
+        <v>91071119</v>
+      </c>
+      <c r="C298" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>40740</v>
+      </c>
+      <c r="B299" s="8">
+        <v>42414346</v>
+      </c>
+      <c r="C299" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>40741</v>
+      </c>
+      <c r="B300" s="8">
+        <v>35703962</v>
+      </c>
+      <c r="C300" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>40742</v>
+      </c>
+      <c r="B301" s="8">
+        <v>18043081</v>
+      </c>
+      <c r="C301" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>40743</v>
+      </c>
+      <c r="B302" s="8">
+        <v>15388166</v>
+      </c>
+      <c r="C302" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>40744</v>
+      </c>
+      <c r="B303" s="8">
+        <v>12267217</v>
+      </c>
+      <c r="C303" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>40745</v>
+      </c>
+      <c r="B304" s="8">
+        <v>11229178</v>
+      </c>
+      <c r="C304" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>40746</v>
+      </c>
+      <c r="B305" s="8">
+        <v>14554115</v>
+      </c>
+      <c r="C305" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>40747</v>
+      </c>
+      <c r="B306" s="8">
+        <v>18263532</v>
+      </c>
+      <c r="C306" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>40748</v>
+      </c>
+      <c r="B307" s="8">
+        <v>14604565</v>
+      </c>
+      <c r="C307" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>40749</v>
+      </c>
+      <c r="B308" s="8">
+        <v>6477328</v>
+      </c>
+      <c r="C308" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>40750</v>
+      </c>
+      <c r="B309" s="8">
+        <v>6479276</v>
+      </c>
+      <c r="C309" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>40751</v>
+      </c>
+      <c r="B310" s="8">
+        <v>5166469</v>
+      </c>
+      <c r="C310" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>40752</v>
+      </c>
+      <c r="B311" s="8">
+        <v>4872155</v>
+      </c>
+      <c r="C311" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>40753</v>
+      </c>
+      <c r="B312" s="8">
+        <v>6557953</v>
+      </c>
+      <c r="C312" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>40754</v>
+      </c>
+      <c r="B313" s="8">
+        <v>8457011</v>
+      </c>
+      <c r="C313" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>40755</v>
+      </c>
+      <c r="B314" s="8">
+        <v>6962129</v>
+      </c>
+      <c r="C314" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>40756</v>
+      </c>
+      <c r="B315" s="8">
+        <v>3328240</v>
+      </c>
+      <c r="C315" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>40757</v>
+      </c>
+      <c r="B316" s="8">
+        <v>3299364</v>
+      </c>
+      <c r="C316" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>40758</v>
+      </c>
+      <c r="B317" s="8">
+        <v>2886480</v>
+      </c>
+      <c r="C317" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>40759</v>
+      </c>
+      <c r="B318" s="8">
+        <v>2615328</v>
+      </c>
+      <c r="C318" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>40760</v>
+      </c>
+      <c r="B319" s="8">
+        <v>3374111</v>
+      </c>
+      <c r="C319" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>40761</v>
+      </c>
+      <c r="B320" s="8">
+        <v>4834999</v>
+      </c>
+      <c r="C320" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>40762</v>
+      </c>
+      <c r="B321" s="8">
+        <v>4235921</v>
+      </c>
+      <c r="C321" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>40763</v>
+      </c>
+      <c r="B322" s="8">
+        <v>1804337</v>
+      </c>
+      <c r="C322" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>40764</v>
+      </c>
+      <c r="B323" s="8">
+        <v>2011238</v>
+      </c>
+      <c r="C323" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>40765</v>
+      </c>
+      <c r="B324" s="8">
+        <v>1662317</v>
+      </c>
+      <c r="C324" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>40766</v>
+      </c>
+      <c r="B325" s="8">
+        <v>1522004</v>
+      </c>
+      <c r="C325" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>40767</v>
+      </c>
+      <c r="B326" s="8">
+        <v>1860231</v>
+      </c>
+      <c r="C326" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>40768</v>
+      </c>
+      <c r="B327" s="8">
+        <v>2761878</v>
+      </c>
+      <c r="C327" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>40769</v>
+      </c>
+      <c r="B328" s="8">
+        <v>2629305</v>
+      </c>
+      <c r="C328" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>40770</v>
+      </c>
+      <c r="B329" s="8">
+        <v>1158055</v>
+      </c>
+      <c r="C329" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>40771</v>
+      </c>
+      <c r="B330" s="8">
+        <v>1142368</v>
+      </c>
+      <c r="C330" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>40772</v>
+      </c>
+      <c r="B331" s="8">
+        <v>927487</v>
+      </c>
+      <c r="C331" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>40773</v>
+      </c>
+      <c r="B332" s="8">
+        <v>931224</v>
+      </c>
+      <c r="C332" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>40774</v>
+      </c>
+      <c r="B333" s="8">
+        <v>1186340</v>
+      </c>
+      <c r="C333" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>40775</v>
+      </c>
+      <c r="B334" s="8">
+        <v>1777484</v>
+      </c>
+      <c r="C334" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>40776</v>
+      </c>
+      <c r="B335" s="8">
+        <v>1547587</v>
+      </c>
+      <c r="C335" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>40777</v>
+      </c>
+      <c r="B336" s="8">
+        <v>594218</v>
+      </c>
+      <c r="C336" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>40778</v>
+      </c>
+      <c r="B337" s="8">
+        <v>601241</v>
+      </c>
+      <c r="C337" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>40779</v>
+      </c>
+      <c r="B338" s="8">
+        <v>508281</v>
+      </c>
+      <c r="C338" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>40780</v>
+      </c>
+      <c r="B339" s="8">
+        <v>529052</v>
+      </c>
+      <c r="C339" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>40781</v>
+      </c>
+      <c r="B340" s="8">
+        <v>688882</v>
+      </c>
+      <c r="C340" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>40782</v>
+      </c>
+      <c r="B341" s="8">
+        <v>1029439</v>
+      </c>
+      <c r="C341" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>40783</v>
+      </c>
+      <c r="B342" s="8">
+        <v>846049</v>
+      </c>
+      <c r="C342" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>40784</v>
+      </c>
+      <c r="B343" s="8">
+        <v>358175</v>
+      </c>
+      <c r="C343" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>40785</v>
+      </c>
+      <c r="B344" s="8">
+        <v>372195</v>
+      </c>
+      <c r="C344" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>40786</v>
+      </c>
+      <c r="B345" s="8">
+        <v>309457</v>
+      </c>
+      <c r="C345" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>40787</v>
+      </c>
+      <c r="B346" s="8">
+        <v>306094</v>
+      </c>
+      <c r="C346" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>40788</v>
+      </c>
+      <c r="B347" s="8">
+        <v>559787</v>
+      </c>
+      <c r="C347" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>40789</v>
+      </c>
+      <c r="B348" s="8">
+        <v>904246</v>
+      </c>
+      <c r="C348" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>40790</v>
+      </c>
+      <c r="B349" s="8">
+        <v>1008568</v>
+      </c>
+      <c r="C349" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>40791</v>
+      </c>
+      <c r="B350" s="8">
+        <v>928509</v>
+      </c>
+      <c r="C350" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>40792</v>
+      </c>
+      <c r="B351" s="8">
+        <v>203305</v>
+      </c>
+      <c r="C351" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>40793</v>
+      </c>
+      <c r="B352" s="8">
+        <v>179469</v>
+      </c>
+      <c r="C352" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>40794</v>
+      </c>
+      <c r="B353" s="8">
+        <v>168234</v>
+      </c>
+      <c r="C353" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>40795</v>
+      </c>
+      <c r="B354" s="8">
+        <v>264292</v>
+      </c>
+      <c r="C354" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>40796</v>
+      </c>
+      <c r="B355" s="8">
+        <v>449807</v>
+      </c>
+      <c r="C355" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>40797</v>
+      </c>
+      <c r="B356" s="8">
+        <v>287484</v>
+      </c>
+      <c r="C356" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>40798</v>
+      </c>
+      <c r="B357" s="8">
+        <v>86245</v>
+      </c>
+      <c r="C357" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>40799</v>
+      </c>
+      <c r="B358" s="8">
+        <v>99182</v>
+      </c>
+      <c r="C358" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>40800</v>
+      </c>
+      <c r="B359" s="8">
+        <v>92239</v>
+      </c>
+      <c r="C359" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>40801</v>
+      </c>
+      <c r="B360" s="8">
+        <v>97773</v>
+      </c>
+      <c r="C360" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>40802</v>
+      </c>
+      <c r="B361" s="8">
+        <v>180393</v>
+      </c>
+      <c r="C361" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>40803</v>
+      </c>
+      <c r="B362" s="8">
+        <v>314228</v>
+      </c>
+      <c r="C362" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>40804</v>
+      </c>
+      <c r="B363" s="8">
+        <v>205877</v>
+      </c>
+      <c r="C363" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>40805</v>
+      </c>
+      <c r="B364" s="8">
+        <v>59705</v>
+      </c>
+      <c r="C364" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>40806</v>
+      </c>
+      <c r="B365" s="8">
+        <v>64681</v>
+      </c>
+      <c r="C365" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>40807</v>
+      </c>
+      <c r="B366" s="8">
+        <v>61047</v>
+      </c>
+      <c r="C366" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>40808</v>
+      </c>
+      <c r="B367" s="8">
+        <v>70814</v>
+      </c>
+      <c r="C367" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>40809</v>
+      </c>
+      <c r="B368" s="8">
+        <v>96808</v>
+      </c>
+      <c r="C368" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>40810</v>
+      </c>
+      <c r="B369" s="8">
+        <v>175367</v>
+      </c>
+      <c r="C369" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>40811</v>
+      </c>
+      <c r="B370" s="8">
+        <v>115273</v>
+      </c>
+      <c r="C370" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>40812</v>
+      </c>
+      <c r="B371" s="8">
+        <v>34582</v>
+      </c>
+      <c r="C371" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>40813</v>
+      </c>
+      <c r="B372" s="8">
+        <v>36011</v>
+      </c>
+      <c r="C372" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>40814</v>
+      </c>
+      <c r="B373" s="8">
+        <v>35851</v>
+      </c>
+      <c r="C373" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>40815</v>
+      </c>
+      <c r="B374" s="8">
+        <v>41587</v>
+      </c>
+      <c r="C374" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B375" s="8">
+        <v>69432</v>
+      </c>
+      <c r="C375" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B376" s="8">
+        <v>125405</v>
+      </c>
+      <c r="C376" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>40818</v>
+      </c>
+      <c r="B377" s="8">
+        <v>78426</v>
+      </c>
+      <c r="C377" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>40819</v>
+      </c>
+      <c r="B378" s="8">
+        <v>23144</v>
+      </c>
+      <c r="C378" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>40820</v>
+      </c>
+      <c r="B379" s="8">
+        <v>24831</v>
+      </c>
+      <c r="C379" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>40821</v>
+      </c>
+      <c r="B380" s="8">
+        <v>24335</v>
+      </c>
+      <c r="C380" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>40822</v>
+      </c>
+      <c r="B381" s="8">
+        <v>26966</v>
+      </c>
+      <c r="C381" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>40823</v>
+      </c>
+      <c r="B382" s="8">
+        <v>112169</v>
+      </c>
+      <c r="C382" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>40824</v>
+      </c>
+      <c r="B383" s="8">
+        <v>169473</v>
+      </c>
+      <c r="C383" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>40825</v>
+      </c>
+      <c r="B384" s="8">
+        <v>124219</v>
+      </c>
+      <c r="C384" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>40826</v>
+      </c>
+      <c r="B385" s="8">
+        <v>65563</v>
+      </c>
+      <c r="C385" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>40827</v>
+      </c>
+      <c r="B386" s="8">
+        <v>46550</v>
+      </c>
+      <c r="C386" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>40828</v>
+      </c>
+      <c r="B387" s="8">
+        <v>40499</v>
+      </c>
+      <c r="C387" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>40829</v>
+      </c>
+      <c r="B388" s="8">
+        <v>47493</v>
+      </c>
+      <c r="C388" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>40830</v>
+      </c>
+      <c r="B389" s="8">
+        <v>81761</v>
+      </c>
+      <c r="C389" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>40831</v>
+      </c>
+      <c r="B390" s="8">
+        <v>122797</v>
+      </c>
+      <c r="C390" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>40832</v>
+      </c>
+      <c r="B391" s="8">
+        <v>79990</v>
+      </c>
+      <c r="C391" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>40833</v>
+      </c>
+      <c r="B392" s="8">
+        <v>24797</v>
+      </c>
+      <c r="C392" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>40834</v>
+      </c>
+      <c r="B393" s="8">
+        <v>28661</v>
+      </c>
+      <c r="C393" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>40835</v>
+      </c>
+      <c r="B394" s="8">
+        <v>27801</v>
+      </c>
+      <c r="C394" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>40836</v>
+      </c>
+      <c r="B395" s="8">
+        <v>33978</v>
+      </c>
+      <c r="C395" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>40837</v>
+      </c>
+      <c r="B396" s="8">
+        <v>55204</v>
+      </c>
+      <c r="C396" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>40838</v>
+      </c>
+      <c r="B397" s="8">
+        <v>78225</v>
+      </c>
+      <c r="C397" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>40839</v>
+      </c>
+      <c r="B398" s="8">
+        <v>47361</v>
+      </c>
+      <c r="C398" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>40840</v>
+      </c>
+      <c r="B399" s="8">
+        <v>14977</v>
+      </c>
+      <c r="C399" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>40841</v>
+      </c>
+      <c r="B400" s="8">
+        <v>16074</v>
+      </c>
+      <c r="C400" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>40842</v>
+      </c>
+      <c r="B401" s="8">
+        <v>15753</v>
+      </c>
+      <c r="C401" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>40843</v>
+      </c>
+      <c r="B402" s="8">
+        <v>18323</v>
+      </c>
+      <c r="C402" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>40844</v>
+      </c>
+      <c r="B403" s="8">
+        <v>30342</v>
+      </c>
+      <c r="C403" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>40845</v>
+      </c>
+      <c r="B404" s="8">
+        <v>49253</v>
+      </c>
+      <c r="C404" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>40846</v>
+      </c>
+      <c r="B405" s="8">
+        <v>31555</v>
+      </c>
+      <c r="C405" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>40847</v>
+      </c>
+      <c r="B406" s="8">
+        <v>10118</v>
+      </c>
+      <c r="C406" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>40848</v>
+      </c>
+      <c r="B407" s="8">
+        <v>10828</v>
+      </c>
+      <c r="C407" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>40849</v>
+      </c>
+      <c r="B408" s="8">
+        <v>11020</v>
+      </c>
+      <c r="C408" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>40850</v>
+      </c>
+      <c r="B409" s="8">
+        <v>13595</v>
+      </c>
+      <c r="C409" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>40851</v>
+      </c>
+      <c r="B410" s="8">
+        <v>22064</v>
+      </c>
+      <c r="C410" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>40852</v>
+      </c>
+      <c r="B411" s="8">
+        <v>63874</v>
+      </c>
+      <c r="C411" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>40853</v>
+      </c>
+      <c r="B412" s="8">
+        <v>33817</v>
+      </c>
+      <c r="C412" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>40854</v>
+      </c>
+      <c r="B413" s="8">
+        <v>6022</v>
+      </c>
+      <c r="C413" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>40855</v>
+      </c>
+      <c r="B414" s="8">
+        <v>6686</v>
+      </c>
+      <c r="C414" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>40856</v>
+      </c>
+      <c r="B415" s="8">
+        <v>6418</v>
+      </c>
+      <c r="C415" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>40857</v>
+      </c>
+      <c r="B416" s="8">
+        <v>9675</v>
+      </c>
+      <c r="C416" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>40858</v>
+      </c>
+      <c r="B417" s="8">
+        <v>17583</v>
+      </c>
+      <c r="C417" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>40859</v>
+      </c>
+      <c r="B418" s="8">
+        <v>20337</v>
+      </c>
+      <c r="C418" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>40860</v>
+      </c>
+      <c r="B419" s="8">
+        <v>15878</v>
+      </c>
+      <c r="C419" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>40861</v>
+      </c>
+      <c r="B420" s="8">
+        <v>5288</v>
+      </c>
+      <c r="C420" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>40862</v>
+      </c>
+      <c r="B421" s="8">
+        <v>5393</v>
+      </c>
+      <c r="C421" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>40863</v>
+      </c>
+      <c r="B422" s="8">
+        <v>5555</v>
+      </c>
+      <c r="C422" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>40864</v>
+      </c>
+      <c r="B423" s="8">
+        <v>2907</v>
+      </c>
+      <c r="C423" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>40865</v>
+      </c>
+      <c r="B424" s="8">
+        <v>7653</v>
+      </c>
+      <c r="C424" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>40866</v>
+      </c>
+      <c r="B425" s="8">
+        <v>10337</v>
+      </c>
+      <c r="C425" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>40867</v>
+      </c>
+      <c r="B426" s="8">
+        <v>7433</v>
+      </c>
+      <c r="C426" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>40868</v>
+      </c>
+      <c r="B427" s="8">
+        <v>3293</v>
+      </c>
+      <c r="C427" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>40869</v>
+      </c>
+      <c r="B428" s="8">
+        <v>4044</v>
+      </c>
+      <c r="C428" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>40870</v>
+      </c>
+      <c r="B429" s="8">
+        <v>2003</v>
+      </c>
+      <c r="C429" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>40871</v>
+      </c>
+      <c r="B430" s="8">
+        <v>1694</v>
+      </c>
+      <c r="C430" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4-childrens-series/harry-potter.xlsx
+++ b/4-childrens-series/harry-potter.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E7199F1-5AC3-0E4A-B4CF-55430407CE92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AA288C01-176F-E341-BC10-DD41BF107589}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23300" yWindow="1460" windowWidth="24160" windowHeight="23620" activeTab="1" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
+    <workbookView xWindow="8440" yWindow="2560" windowWidth="24160" windowHeight="23620" activeTab="2" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
+    <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="21">
   <si>
     <t>Published Date</t>
   </si>
@@ -80,6 +81,15 @@
   </si>
   <si>
     <t>Deathly Hallows Pt. 2</t>
+  </si>
+  <si>
+    <t>Week End</t>
+  </si>
+  <si>
+    <t>Week Start</t>
+  </si>
+  <si>
+    <t>Box Office Gross</t>
   </si>
 </sst>
 </file>
@@ -457,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E2E8DD-A8F5-4740-B8E8-9F99CB838420}">
   <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8598,8 +8608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF899AB-7560-0D47-989C-4F7AF6A72502}">
   <dimension ref="A1:C430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="C301" sqref="C301"/>
+    <sheetView topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13342,4 +13352,6755 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2C108A-41A3-0F41-A129-F5027949B457}">
+  <dimension ref="A1:D540"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>B2-6</f>
+        <v>39586</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39592</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A66" si="0">B3-6</f>
+        <v>39593</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39599</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>39600</v>
+      </c>
+      <c r="B4" s="1">
+        <v>39606</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>39607</v>
+      </c>
+      <c r="B5" s="1">
+        <v>39613</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>39614</v>
+      </c>
+      <c r="B6" s="1">
+        <v>39620</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>39621</v>
+      </c>
+      <c r="B7" s="1">
+        <v>39627</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>39628</v>
+      </c>
+      <c r="B8" s="1">
+        <v>39634</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>39635</v>
+      </c>
+      <c r="B9" s="1">
+        <v>39641</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>39642</v>
+      </c>
+      <c r="B10" s="1">
+        <v>39648</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>39649</v>
+      </c>
+      <c r="B11" s="1">
+        <v>39655</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>39656</v>
+      </c>
+      <c r="B12" s="1">
+        <v>39662</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>39663</v>
+      </c>
+      <c r="B13" s="1">
+        <v>39669</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>39670</v>
+      </c>
+      <c r="B14" s="1">
+        <v>39676</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>39677</v>
+      </c>
+      <c r="B15" s="1">
+        <v>39683</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>39684</v>
+      </c>
+      <c r="B16" s="1">
+        <v>39690</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>39691</v>
+      </c>
+      <c r="B17" s="1">
+        <v>39697</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>39698</v>
+      </c>
+      <c r="B18" s="1">
+        <v>39704</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>39705</v>
+      </c>
+      <c r="B19" s="1">
+        <v>39711</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>39719</v>
+      </c>
+      <c r="B21" s="1">
+        <v>39725</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>39726</v>
+      </c>
+      <c r="B22" s="1">
+        <v>39732</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>39733</v>
+      </c>
+      <c r="B23" s="1">
+        <v>39739</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>39740</v>
+      </c>
+      <c r="B24" s="1">
+        <v>39746</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>39747</v>
+      </c>
+      <c r="B25" s="1">
+        <v>39753</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>39754</v>
+      </c>
+      <c r="B26" s="1">
+        <v>39760</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>39761</v>
+      </c>
+      <c r="B27" s="1">
+        <v>39767</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>39768</v>
+      </c>
+      <c r="B28" s="1">
+        <v>39774</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>39775</v>
+      </c>
+      <c r="B29" s="1">
+        <v>39781</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>39782</v>
+      </c>
+      <c r="B30" s="1">
+        <v>39788</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>39789</v>
+      </c>
+      <c r="B31" s="1">
+        <v>39795</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>39796</v>
+      </c>
+      <c r="B32" s="1">
+        <v>39802</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>39803</v>
+      </c>
+      <c r="B33" s="1">
+        <v>39809</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>39810</v>
+      </c>
+      <c r="B34" s="1">
+        <v>39816</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>39817</v>
+      </c>
+      <c r="B35" s="1">
+        <v>39823</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>39824</v>
+      </c>
+      <c r="B36" s="1">
+        <v>39830</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>39831</v>
+      </c>
+      <c r="B37" s="1">
+        <v>39837</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>39838</v>
+      </c>
+      <c r="B38" s="1">
+        <v>39844</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>39845</v>
+      </c>
+      <c r="B39" s="1">
+        <v>39851</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>39852</v>
+      </c>
+      <c r="B40" s="1">
+        <v>39858</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>39859</v>
+      </c>
+      <c r="B41" s="1">
+        <v>39865</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>39866</v>
+      </c>
+      <c r="B42" s="1">
+        <v>39872</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>39873</v>
+      </c>
+      <c r="B43" s="1">
+        <v>39879</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>39880</v>
+      </c>
+      <c r="B44" s="1">
+        <v>39886</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>39887</v>
+      </c>
+      <c r="B45" s="1">
+        <v>39893</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>39894</v>
+      </c>
+      <c r="B46" s="1">
+        <v>39900</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>39901</v>
+      </c>
+      <c r="B47" s="1">
+        <v>39907</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>39908</v>
+      </c>
+      <c r="B48" s="1">
+        <v>39914</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>39915</v>
+      </c>
+      <c r="B49" s="1">
+        <v>39921</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>39922</v>
+      </c>
+      <c r="B50" s="1">
+        <v>39928</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>39929</v>
+      </c>
+      <c r="B51" s="1">
+        <v>39935</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>39936</v>
+      </c>
+      <c r="B52" s="1">
+        <v>39942</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>39943</v>
+      </c>
+      <c r="B53" s="1">
+        <v>39949</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>39950</v>
+      </c>
+      <c r="B54" s="1">
+        <v>39956</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>39957</v>
+      </c>
+      <c r="B55" s="1">
+        <v>39963</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>39964</v>
+      </c>
+      <c r="B56" s="1">
+        <v>39970</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>39971</v>
+      </c>
+      <c r="B57" s="1">
+        <v>39977</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>39978</v>
+      </c>
+      <c r="B58" s="1">
+        <v>39984</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>39985</v>
+      </c>
+      <c r="B59" s="1">
+        <v>39991</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>39992</v>
+      </c>
+      <c r="B60" s="1">
+        <v>39998</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>39999</v>
+      </c>
+      <c r="B61" s="1">
+        <v>40005</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>40006</v>
+      </c>
+      <c r="B62" s="1">
+        <v>40012</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" s="8">
+        <f>SUM('Box Office'!B2:B5)</f>
+        <v>136241423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>40013</v>
+      </c>
+      <c r="B63" s="1">
+        <v>40019</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" s="8">
+        <f>SUM('Box Office'!B6:B12)</f>
+        <v>76119425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>40020</v>
+      </c>
+      <c r="B64" s="1">
+        <v>40026</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" s="8">
+        <f>SUM('Box Office'!B13:B19)</f>
+        <v>37532997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>40027</v>
+      </c>
+      <c r="B65" s="1">
+        <v>40033</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" s="8">
+        <f>SUM('Box Office'!B20:B26)</f>
+        <v>21083840</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>40034</v>
+      </c>
+      <c r="B66" s="1">
+        <v>40040</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66" s="8">
+        <f>SUM('Box Office'!B27:B33)</f>
+        <v>11260386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f t="shared" ref="A67:A130" si="1">B67-6</f>
+        <v>40041</v>
+      </c>
+      <c r="B67" s="1">
+        <v>40047</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67" s="8">
+        <f>SUM('Box Office'!B34:B40)</f>
+        <v>6929882</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" si="1"/>
+        <v>40048</v>
+      </c>
+      <c r="B68" s="1">
+        <v>40054</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68" s="8">
+        <f>SUM('Box Office'!B41:B47)</f>
+        <v>4385748</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>40055</v>
+      </c>
+      <c r="B69" s="1">
+        <v>40061</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69" s="8">
+        <f>SUM('Box Office'!B48:B54)</f>
+        <v>2643730</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>40062</v>
+      </c>
+      <c r="B70" s="1">
+        <v>40068</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="8">
+        <f>SUM('Box Office'!B55:B61)</f>
+        <v>2391364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>40069</v>
+      </c>
+      <c r="B71" s="1">
+        <v>40075</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="8">
+        <f>SUM('Box Office'!B62:B68)</f>
+        <v>867944</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>40076</v>
+      </c>
+      <c r="B72" s="1">
+        <v>40082</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="8">
+        <f>SUM('Box Office'!B69:B75)</f>
+        <v>430380</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>40083</v>
+      </c>
+      <c r="B73" s="1">
+        <v>40089</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="8">
+        <f>SUM('Box Office'!B76:B82)</f>
+        <v>294467</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>40090</v>
+      </c>
+      <c r="B74" s="1">
+        <v>40096</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="8">
+        <f>SUM('Box Office'!B83:B89)</f>
+        <v>392896</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>40097</v>
+      </c>
+      <c r="B75" s="1">
+        <v>40103</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="8">
+        <f>SUM('Box Office'!B90:B96)</f>
+        <v>507740</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>40104</v>
+      </c>
+      <c r="B76" s="1">
+        <v>40110</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="8">
+        <f>SUM('Box Office'!B97:B103)</f>
+        <v>288045</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>40111</v>
+      </c>
+      <c r="B77" s="1">
+        <v>40117</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="8">
+        <f>SUM('Box Office'!B104:B110)</f>
+        <v>170309</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>40118</v>
+      </c>
+      <c r="B78" s="1">
+        <v>40124</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="8">
+        <f>SUM('Box Office'!B111:B117)</f>
+        <v>144049</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>40125</v>
+      </c>
+      <c r="B79" s="1">
+        <v>40131</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="8">
+        <f>SUM('Box Office'!B118:B124)</f>
+        <v>107144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>40132</v>
+      </c>
+      <c r="B80" s="1">
+        <v>40138</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="8">
+        <f>SUM('Box Office'!B125:B131)</f>
+        <v>65134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>40139</v>
+      </c>
+      <c r="B81" s="1">
+        <v>40145</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="8">
+        <f>SUM('Box Office'!B132:B138)</f>
+        <v>55648</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>40146</v>
+      </c>
+      <c r="B82" s="1">
+        <v>40152</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="8">
+        <f>SUM('Box Office'!B139:B145)</f>
+        <v>30229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>40153</v>
+      </c>
+      <c r="B83" s="1">
+        <v>40159</v>
+      </c>
+      <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83" s="8">
+        <f>SUM('Box Office'!B146:B152)</f>
+        <v>12867</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>40160</v>
+      </c>
+      <c r="B84" s="1">
+        <v>40166</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+      <c r="D84" s="8">
+        <f>SUM('Box Office'!B153:B157)</f>
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>40168</v>
+      </c>
+      <c r="B85" s="1">
+        <v>40174</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>40175</v>
+      </c>
+      <c r="B86" s="1">
+        <v>40181</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>40182</v>
+      </c>
+      <c r="B87" s="1">
+        <v>40188</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>40189</v>
+      </c>
+      <c r="B88" s="1">
+        <v>40195</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>40196</v>
+      </c>
+      <c r="B89" s="1">
+        <v>40202</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>40203</v>
+      </c>
+      <c r="B90" s="1">
+        <v>40209</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <f t="shared" si="1"/>
+        <v>40210</v>
+      </c>
+      <c r="B91" s="1">
+        <v>40216</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <f t="shared" si="1"/>
+        <v>40217</v>
+      </c>
+      <c r="B92" s="1">
+        <v>40223</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <f t="shared" si="1"/>
+        <v>40224</v>
+      </c>
+      <c r="B93" s="1">
+        <v>40230</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <f t="shared" si="1"/>
+        <v>40231</v>
+      </c>
+      <c r="B94" s="1">
+        <v>40237</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <f t="shared" si="1"/>
+        <v>40238</v>
+      </c>
+      <c r="B95" s="1">
+        <v>40244</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <f t="shared" si="1"/>
+        <v>40245</v>
+      </c>
+      <c r="B96" s="1">
+        <v>40251</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <f t="shared" si="1"/>
+        <v>40252</v>
+      </c>
+      <c r="B97" s="1">
+        <v>40258</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <f t="shared" si="1"/>
+        <v>40259</v>
+      </c>
+      <c r="B98" s="1">
+        <v>40265</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <f t="shared" si="1"/>
+        <v>40266</v>
+      </c>
+      <c r="B99" s="1">
+        <v>40272</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <f t="shared" si="1"/>
+        <v>40273</v>
+      </c>
+      <c r="B100" s="1">
+        <v>40279</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <f t="shared" si="1"/>
+        <v>40280</v>
+      </c>
+      <c r="B101" s="1">
+        <v>40286</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <f t="shared" si="1"/>
+        <v>40287</v>
+      </c>
+      <c r="B102" s="1">
+        <v>40293</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <f t="shared" si="1"/>
+        <v>40294</v>
+      </c>
+      <c r="B103" s="1">
+        <v>40300</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <f t="shared" si="1"/>
+        <v>40301</v>
+      </c>
+      <c r="B104" s="1">
+        <v>40307</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <f t="shared" si="1"/>
+        <v>40308</v>
+      </c>
+      <c r="B105" s="1">
+        <v>40314</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <f t="shared" si="1"/>
+        <v>40315</v>
+      </c>
+      <c r="B106" s="1">
+        <v>40321</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <f t="shared" si="1"/>
+        <v>40322</v>
+      </c>
+      <c r="B107" s="1">
+        <v>40328</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <f t="shared" si="1"/>
+        <v>40329</v>
+      </c>
+      <c r="B108" s="1">
+        <v>40335</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <f t="shared" si="1"/>
+        <v>40336</v>
+      </c>
+      <c r="B109" s="1">
+        <v>40342</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <f t="shared" si="1"/>
+        <v>40343</v>
+      </c>
+      <c r="B110" s="1">
+        <v>40349</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <f t="shared" si="1"/>
+        <v>40350</v>
+      </c>
+      <c r="B111" s="1">
+        <v>40356</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <f t="shared" si="1"/>
+        <v>40357</v>
+      </c>
+      <c r="B112" s="1">
+        <v>40363</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <f t="shared" si="1"/>
+        <v>40364</v>
+      </c>
+      <c r="B113" s="1">
+        <v>40370</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <f t="shared" si="1"/>
+        <v>40371</v>
+      </c>
+      <c r="B114" s="1">
+        <v>40377</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <f t="shared" si="1"/>
+        <v>40378</v>
+      </c>
+      <c r="B115" s="1">
+        <v>40384</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <f t="shared" si="1"/>
+        <v>40385</v>
+      </c>
+      <c r="B116" s="1">
+        <v>40391</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <f t="shared" si="1"/>
+        <v>40392</v>
+      </c>
+      <c r="B117" s="1">
+        <v>40398</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <f t="shared" si="1"/>
+        <v>40399</v>
+      </c>
+      <c r="B118" s="1">
+        <v>40405</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <f t="shared" si="1"/>
+        <v>40406</v>
+      </c>
+      <c r="B119" s="1">
+        <v>40412</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <f t="shared" si="1"/>
+        <v>40413</v>
+      </c>
+      <c r="B120" s="1">
+        <v>40419</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <f t="shared" si="1"/>
+        <v>40420</v>
+      </c>
+      <c r="B121" s="1">
+        <v>40426</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <f t="shared" si="1"/>
+        <v>40427</v>
+      </c>
+      <c r="B122" s="1">
+        <v>40433</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <f t="shared" si="1"/>
+        <v>40434</v>
+      </c>
+      <c r="B123" s="1">
+        <v>40440</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <f t="shared" si="1"/>
+        <v>40441</v>
+      </c>
+      <c r="B124" s="1">
+        <v>40447</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <f t="shared" si="1"/>
+        <v>40448</v>
+      </c>
+      <c r="B125" s="1">
+        <v>40454</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <f t="shared" si="1"/>
+        <v>40455</v>
+      </c>
+      <c r="B126" s="1">
+        <v>40461</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <f t="shared" si="1"/>
+        <v>40462</v>
+      </c>
+      <c r="B127" s="1">
+        <v>40468</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <f t="shared" si="1"/>
+        <v>40469</v>
+      </c>
+      <c r="B128" s="1">
+        <v>40475</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <f t="shared" si="1"/>
+        <v>40476</v>
+      </c>
+      <c r="B129" s="1">
+        <v>40482</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <f t="shared" si="1"/>
+        <v>40483</v>
+      </c>
+      <c r="B130" s="1">
+        <v>40489</v>
+      </c>
+      <c r="C130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <f t="shared" ref="A131:A194" si="2">B131-6</f>
+        <v>40490</v>
+      </c>
+      <c r="B131" s="1">
+        <v>40496</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <f t="shared" si="2"/>
+        <v>40497</v>
+      </c>
+      <c r="B132" s="1">
+        <v>40503</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132" s="8">
+        <f>SUM('Box Office'!B158:B160)</f>
+        <v>125017372</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <f t="shared" si="2"/>
+        <v>40504</v>
+      </c>
+      <c r="B133" s="1">
+        <v>40510</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133" s="8">
+        <f>SUM('Box Office'!B161:B167)</f>
+        <v>94038757</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <f t="shared" si="2"/>
+        <v>40511</v>
+      </c>
+      <c r="B134" s="1">
+        <v>40517</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134" s="8">
+        <f>SUM('Box Office'!B168:B174)</f>
+        <v>25462987</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <f t="shared" si="2"/>
+        <v>40518</v>
+      </c>
+      <c r="B135" s="1">
+        <v>40524</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135" s="8">
+        <f>SUM('Box Office'!B175:B181)</f>
+        <v>13153605</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <f t="shared" si="2"/>
+        <v>40525</v>
+      </c>
+      <c r="B136" s="1">
+        <v>40531</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136" s="8">
+        <f>SUM('Box Office'!B182:B188)</f>
+        <v>8050897</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <f t="shared" si="2"/>
+        <v>40532</v>
+      </c>
+      <c r="B137" s="1">
+        <v>40538</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="D137" s="8">
+        <f>SUM('Box Office'!B189:B195)</f>
+        <v>7271017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <f t="shared" si="2"/>
+        <v>40539</v>
+      </c>
+      <c r="B138" s="1">
+        <v>40545</v>
+      </c>
+      <c r="C138">
+        <v>6</v>
+      </c>
+      <c r="D138" s="8">
+        <f>SUM('Box Office'!B196:B202)</f>
+        <v>10538580</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <f t="shared" si="2"/>
+        <v>40546</v>
+      </c>
+      <c r="B139" s="1">
+        <v>40552</v>
+      </c>
+      <c r="C139">
+        <v>7</v>
+      </c>
+      <c r="D139" s="8">
+        <f>SUM('Box Office'!B203:B209)</f>
+        <v>4128555</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <f t="shared" si="2"/>
+        <v>40553</v>
+      </c>
+      <c r="B140" s="1">
+        <v>40559</v>
+      </c>
+      <c r="C140">
+        <v>9</v>
+      </c>
+      <c r="D140" s="8">
+        <f>SUM('Box Office'!B210:B216)</f>
+        <v>2141702</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <f t="shared" si="2"/>
+        <v>40560</v>
+      </c>
+      <c r="B141" s="1">
+        <v>40566</v>
+      </c>
+      <c r="C141">
+        <v>9</v>
+      </c>
+      <c r="D141" s="8">
+        <f>SUM('Box Office'!B217:B223)</f>
+        <v>1537296</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <f t="shared" si="2"/>
+        <v>40567</v>
+      </c>
+      <c r="B142" s="1">
+        <v>40573</v>
+      </c>
+      <c r="C142">
+        <v>7</v>
+      </c>
+      <c r="D142" s="8">
+        <f>SUM('Box Office'!B224:B230)</f>
+        <v>882724</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <f>B143-5</f>
+        <v>40574</v>
+      </c>
+      <c r="B143" s="1">
+        <v>40579</v>
+      </c>
+      <c r="C143">
+        <v>8</v>
+      </c>
+      <c r="D143" s="8">
+        <f>SUM('Box Office'!B231:B236)</f>
+        <v>458705</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <f t="shared" si="2"/>
+        <v>40580</v>
+      </c>
+      <c r="B144" s="1">
+        <v>40586</v>
+      </c>
+      <c r="C144">
+        <v>10</v>
+      </c>
+      <c r="D144" s="8">
+        <f>SUM('Box Office'!B237:B243)</f>
+        <v>532237</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <f t="shared" si="2"/>
+        <v>40587</v>
+      </c>
+      <c r="B145" s="1">
+        <v>40593</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4</v>
+      </c>
+      <c r="D145" s="8">
+        <f>SUM('Box Office'!B244:B250)</f>
+        <v>564359</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <f t="shared" si="2"/>
+        <v>40594</v>
+      </c>
+      <c r="B146" s="1">
+        <v>40600</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" s="8">
+        <f>SUM('Box Office'!B251:B257)</f>
+        <v>478789</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <f t="shared" si="2"/>
+        <v>40601</v>
+      </c>
+      <c r="B147" s="1">
+        <v>40607</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+      <c r="D147" s="8">
+        <f>SUM('Box Office'!B258:B264)</f>
+        <v>255162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <f t="shared" si="2"/>
+        <v>40608</v>
+      </c>
+      <c r="B148" s="1">
+        <v>40614</v>
+      </c>
+      <c r="C148">
+        <v>9</v>
+      </c>
+      <c r="D148" s="8">
+        <f>SUM('Box Office'!B265:B271)</f>
+        <v>171370</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <f t="shared" si="2"/>
+        <v>40615</v>
+      </c>
+      <c r="B149" s="1">
+        <v>40621</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+      <c r="D149" s="8">
+        <f>SUM('Box Office'!B272:B278)</f>
+        <v>121799</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <f t="shared" si="2"/>
+        <v>40622</v>
+      </c>
+      <c r="B150" s="1">
+        <v>40628</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" s="8">
+        <f>SUM('Box Office'!B279:B285)</f>
+        <v>91770</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <f t="shared" si="2"/>
+        <v>40629</v>
+      </c>
+      <c r="B151" s="1">
+        <v>40635</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="8">
+        <f>SUM('Box Office'!B286:B292)</f>
+        <v>71832</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <f t="shared" si="2"/>
+        <v>40636</v>
+      </c>
+      <c r="B152" s="1">
+        <v>40642</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" s="8">
+        <f>SUM('Box Office'!B293:B297)</f>
+        <v>31555</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <f t="shared" si="2"/>
+        <v>40643</v>
+      </c>
+      <c r="B153" s="1">
+        <v>40649</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <f t="shared" si="2"/>
+        <v>40650</v>
+      </c>
+      <c r="B154" s="1">
+        <v>40656</v>
+      </c>
+      <c r="C154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <f t="shared" si="2"/>
+        <v>40657</v>
+      </c>
+      <c r="B155" s="1">
+        <v>40663</v>
+      </c>
+      <c r="C155">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <f t="shared" si="2"/>
+        <v>40664</v>
+      </c>
+      <c r="B156" s="1">
+        <v>40670</v>
+      </c>
+      <c r="C156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <f t="shared" si="2"/>
+        <v>40671</v>
+      </c>
+      <c r="B157" s="1">
+        <v>40677</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <f t="shared" si="2"/>
+        <v>40678</v>
+      </c>
+      <c r="B158" s="1">
+        <v>40684</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <f t="shared" si="2"/>
+        <v>40685</v>
+      </c>
+      <c r="B159" s="1">
+        <v>40691</v>
+      </c>
+      <c r="C159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <f t="shared" si="2"/>
+        <v>40692</v>
+      </c>
+      <c r="B160" s="1">
+        <v>40698</v>
+      </c>
+      <c r="C160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <f t="shared" si="2"/>
+        <v>40699</v>
+      </c>
+      <c r="B161" s="1">
+        <v>40705</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <f t="shared" si="2"/>
+        <v>40706</v>
+      </c>
+      <c r="B162" s="1">
+        <v>40712</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <f t="shared" si="2"/>
+        <v>40713</v>
+      </c>
+      <c r="B163" s="1">
+        <v>40719</v>
+      </c>
+      <c r="C163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <f t="shared" si="2"/>
+        <v>40720</v>
+      </c>
+      <c r="B164" s="1">
+        <v>40726</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <f t="shared" si="2"/>
+        <v>40727</v>
+      </c>
+      <c r="B165" s="1">
+        <v>40733</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <f t="shared" si="2"/>
+        <v>40734</v>
+      </c>
+      <c r="B166" s="1">
+        <v>40740</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166" s="8">
+        <f>SUM('Box Office'!B298:B299)</f>
+        <v>133485465</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <f t="shared" si="2"/>
+        <v>40741</v>
+      </c>
+      <c r="B167" s="1">
+        <v>40747</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167" s="8">
+        <f>SUM('Box Office'!B300:B306)</f>
+        <v>125449251</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <f t="shared" si="2"/>
+        <v>40748</v>
+      </c>
+      <c r="B168" s="1">
+        <v>40754</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168" s="8">
+        <f>SUM('Box Office'!B307:B313)</f>
+        <v>52614757</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <f t="shared" si="2"/>
+        <v>40755</v>
+      </c>
+      <c r="B169" s="1">
+        <v>40761</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169" s="8">
+        <f>SUM('Box Office'!B314:B320)</f>
+        <v>27300651</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <f t="shared" si="2"/>
+        <v>40762</v>
+      </c>
+      <c r="B170" s="1">
+        <v>40768</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170" s="8">
+        <f>SUM('Box Office'!B321:B327)</f>
+        <v>15857926</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <f t="shared" si="2"/>
+        <v>40769</v>
+      </c>
+      <c r="B171" s="1">
+        <v>40775</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171" s="8">
+        <f>SUM('Box Office'!B328:B334)</f>
+        <v>9752263</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <f t="shared" si="2"/>
+        <v>40776</v>
+      </c>
+      <c r="B172" s="1">
+        <v>40782</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172" s="8">
+        <f>SUM('Box Office'!B335:B341)</f>
+        <v>5498700</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <f t="shared" si="2"/>
+        <v>40783</v>
+      </c>
+      <c r="B173" s="1">
+        <v>40789</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+      <c r="D173" s="8">
+        <f>SUM('Box Office'!B342:B348)</f>
+        <v>3656003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <f t="shared" si="2"/>
+        <v>40790</v>
+      </c>
+      <c r="B174" s="1">
+        <v>40796</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+      <c r="D174" s="8">
+        <f>SUM('Box Office'!B349:B355)</f>
+        <v>3202184</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <f t="shared" si="2"/>
+        <v>40797</v>
+      </c>
+      <c r="B175" s="1">
+        <v>40803</v>
+      </c>
+      <c r="C175">
+        <v>5</v>
+      </c>
+      <c r="D175" s="8">
+        <f>SUM('Box Office'!B356:B362)</f>
+        <v>1157544</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <f t="shared" si="2"/>
+        <v>40804</v>
+      </c>
+      <c r="B176" s="1">
+        <v>40810</v>
+      </c>
+      <c r="C176">
+        <v>7</v>
+      </c>
+      <c r="D176" s="8">
+        <f>SUM('Box Office'!B363:B369)</f>
+        <v>734299</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <f t="shared" si="2"/>
+        <v>40811</v>
+      </c>
+      <c r="B177" s="1">
+        <v>40817</v>
+      </c>
+      <c r="C177">
+        <v>9</v>
+      </c>
+      <c r="D177" s="8">
+        <f>SUM('Box Office'!B370:B376)</f>
+        <v>458141</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <f t="shared" si="2"/>
+        <v>40818</v>
+      </c>
+      <c r="B178" s="1">
+        <v>40824</v>
+      </c>
+      <c r="C178">
+        <v>10</v>
+      </c>
+      <c r="D178" s="8">
+        <f>SUM('Box Office'!B377:B383)</f>
+        <v>459344</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <f t="shared" si="2"/>
+        <v>40825</v>
+      </c>
+      <c r="B179" s="1">
+        <v>40831</v>
+      </c>
+      <c r="C179">
+        <v>10</v>
+      </c>
+      <c r="D179" s="8">
+        <f>SUM('Box Office'!B384:B390)</f>
+        <v>528882</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <f t="shared" si="2"/>
+        <v>40832</v>
+      </c>
+      <c r="B180" s="1">
+        <v>40838</v>
+      </c>
+      <c r="C180" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="8">
+        <f>SUM('Box Office'!B391:B397)</f>
+        <v>328656</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <f t="shared" si="2"/>
+        <v>40839</v>
+      </c>
+      <c r="B181" s="1">
+        <v>40845</v>
+      </c>
+      <c r="C181" t="s">
+        <v>4</v>
+      </c>
+      <c r="D181" s="8">
+        <f>SUM('Box Office'!B398:B404)</f>
+        <v>192083</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <f t="shared" si="2"/>
+        <v>40846</v>
+      </c>
+      <c r="B182" s="1">
+        <v>40852</v>
+      </c>
+      <c r="C182" t="s">
+        <v>4</v>
+      </c>
+      <c r="D182" s="8">
+        <f>SUM('Box Office'!B405:B411)</f>
+        <v>163054</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <f t="shared" si="2"/>
+        <v>40853</v>
+      </c>
+      <c r="B183" s="1">
+        <v>40859</v>
+      </c>
+      <c r="C183">
+        <v>8</v>
+      </c>
+      <c r="D183" s="8">
+        <f>SUM('Box Office'!B412:B418)</f>
+        <v>100538</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <f t="shared" si="2"/>
+        <v>40860</v>
+      </c>
+      <c r="B184" s="1">
+        <v>40866</v>
+      </c>
+      <c r="C184">
+        <v>4</v>
+      </c>
+      <c r="D184" s="8">
+        <f>SUM('Box Office'!B419:B425)</f>
+        <v>53011</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <f t="shared" si="2"/>
+        <v>40867</v>
+      </c>
+      <c r="B185" s="1">
+        <v>40873</v>
+      </c>
+      <c r="C185">
+        <v>8</v>
+      </c>
+      <c r="D185" s="8">
+        <f>SUM('Box Office'!B426:B430)</f>
+        <v>18467</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <f t="shared" si="2"/>
+        <v>40874</v>
+      </c>
+      <c r="B186" s="1">
+        <v>40880</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <f t="shared" si="2"/>
+        <v>40881</v>
+      </c>
+      <c r="B187" s="1">
+        <v>40887</v>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <f t="shared" si="2"/>
+        <v>40888</v>
+      </c>
+      <c r="B188" s="1">
+        <v>40894</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <f t="shared" si="2"/>
+        <v>40895</v>
+      </c>
+      <c r="B189" s="1">
+        <v>40901</v>
+      </c>
+      <c r="C189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <f t="shared" si="2"/>
+        <v>40902</v>
+      </c>
+      <c r="B190" s="1">
+        <v>40908</v>
+      </c>
+      <c r="C190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <f t="shared" si="2"/>
+        <v>40909</v>
+      </c>
+      <c r="B191" s="1">
+        <v>40915</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <f t="shared" si="2"/>
+        <v>40916</v>
+      </c>
+      <c r="B192" s="1">
+        <v>40922</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <f t="shared" si="2"/>
+        <v>40923</v>
+      </c>
+      <c r="B193" s="1">
+        <v>40929</v>
+      </c>
+      <c r="C193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <f t="shared" si="2"/>
+        <v>40930</v>
+      </c>
+      <c r="B194" s="1">
+        <v>40936</v>
+      </c>
+      <c r="C194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <f t="shared" ref="A195:A258" si="3">B195-6</f>
+        <v>40937</v>
+      </c>
+      <c r="B195" s="1">
+        <v>40943</v>
+      </c>
+      <c r="C195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <f t="shared" si="3"/>
+        <v>40944</v>
+      </c>
+      <c r="B196" s="1">
+        <v>40950</v>
+      </c>
+      <c r="C196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <f t="shared" si="3"/>
+        <v>40951</v>
+      </c>
+      <c r="B197" s="1">
+        <v>40957</v>
+      </c>
+      <c r="C197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <f t="shared" si="3"/>
+        <v>40958</v>
+      </c>
+      <c r="B198" s="1">
+        <v>40964</v>
+      </c>
+      <c r="C198">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <f t="shared" si="3"/>
+        <v>40965</v>
+      </c>
+      <c r="B199" s="1">
+        <v>40971</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <f t="shared" si="3"/>
+        <v>40972</v>
+      </c>
+      <c r="B200" s="1">
+        <v>40978</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <f t="shared" si="3"/>
+        <v>40979</v>
+      </c>
+      <c r="B201" s="1">
+        <v>40985</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <f t="shared" si="3"/>
+        <v>40986</v>
+      </c>
+      <c r="B202" s="1">
+        <v>40992</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <f t="shared" si="3"/>
+        <v>40993</v>
+      </c>
+      <c r="B203" s="1">
+        <v>40999</v>
+      </c>
+      <c r="C203">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <f t="shared" si="3"/>
+        <v>41000</v>
+      </c>
+      <c r="B204" s="1">
+        <v>41006</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <f t="shared" si="3"/>
+        <v>41007</v>
+      </c>
+      <c r="B205" s="1">
+        <v>41013</v>
+      </c>
+      <c r="C205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <f t="shared" si="3"/>
+        <v>41014</v>
+      </c>
+      <c r="B206" s="1">
+        <v>41020</v>
+      </c>
+      <c r="C206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <f t="shared" si="3"/>
+        <v>41021</v>
+      </c>
+      <c r="B207" s="1">
+        <v>41027</v>
+      </c>
+      <c r="C207" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <f t="shared" si="3"/>
+        <v>41028</v>
+      </c>
+      <c r="B208" s="1">
+        <v>41034</v>
+      </c>
+      <c r="C208" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <f t="shared" si="3"/>
+        <v>41035</v>
+      </c>
+      <c r="B209" s="1">
+        <v>41041</v>
+      </c>
+      <c r="C209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <f t="shared" si="3"/>
+        <v>41042</v>
+      </c>
+      <c r="B210" s="1">
+        <v>41048</v>
+      </c>
+      <c r="C210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <f t="shared" si="3"/>
+        <v>41049</v>
+      </c>
+      <c r="B211" s="1">
+        <v>41055</v>
+      </c>
+      <c r="C211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <f t="shared" si="3"/>
+        <v>41056</v>
+      </c>
+      <c r="B212" s="1">
+        <v>41062</v>
+      </c>
+      <c r="C212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <f t="shared" si="3"/>
+        <v>41063</v>
+      </c>
+      <c r="B213" s="1">
+        <v>41069</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <f t="shared" si="3"/>
+        <v>41070</v>
+      </c>
+      <c r="B214" s="1">
+        <v>41076</v>
+      </c>
+      <c r="C214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <f t="shared" si="3"/>
+        <v>41077</v>
+      </c>
+      <c r="B215" s="1">
+        <v>41083</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <f t="shared" si="3"/>
+        <v>41084</v>
+      </c>
+      <c r="B216" s="1">
+        <v>41090</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <f t="shared" si="3"/>
+        <v>41091</v>
+      </c>
+      <c r="B217" s="1">
+        <v>41097</v>
+      </c>
+      <c r="C217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <f t="shared" si="3"/>
+        <v>41098</v>
+      </c>
+      <c r="B218" s="1">
+        <v>41104</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <f t="shared" si="3"/>
+        <v>41105</v>
+      </c>
+      <c r="B219" s="1">
+        <v>41111</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <f t="shared" si="3"/>
+        <v>41112</v>
+      </c>
+      <c r="B220" s="1">
+        <v>41118</v>
+      </c>
+      <c r="C220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <f t="shared" si="3"/>
+        <v>41119</v>
+      </c>
+      <c r="B221" s="1">
+        <v>41125</v>
+      </c>
+      <c r="C221" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <f t="shared" si="3"/>
+        <v>41126</v>
+      </c>
+      <c r="B222" s="1">
+        <v>41132</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <f t="shared" si="3"/>
+        <v>41133</v>
+      </c>
+      <c r="B223" s="1">
+        <v>41139</v>
+      </c>
+      <c r="C223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <f t="shared" si="3"/>
+        <v>41140</v>
+      </c>
+      <c r="B224" s="1">
+        <v>41146</v>
+      </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <f t="shared" si="3"/>
+        <v>41147</v>
+      </c>
+      <c r="B225" s="1">
+        <v>41153</v>
+      </c>
+      <c r="C225" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <f t="shared" si="3"/>
+        <v>41154</v>
+      </c>
+      <c r="B226" s="1">
+        <v>41160</v>
+      </c>
+      <c r="C226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <f t="shared" si="3"/>
+        <v>41161</v>
+      </c>
+      <c r="B227" s="1">
+        <v>41167</v>
+      </c>
+      <c r="C227" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <f t="shared" si="3"/>
+        <v>41168</v>
+      </c>
+      <c r="B228" s="1">
+        <v>41174</v>
+      </c>
+      <c r="C228" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <f t="shared" si="3"/>
+        <v>41175</v>
+      </c>
+      <c r="B229" s="1">
+        <v>41181</v>
+      </c>
+      <c r="C229" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <f t="shared" si="3"/>
+        <v>41182</v>
+      </c>
+      <c r="B230" s="1">
+        <v>41188</v>
+      </c>
+      <c r="C230" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <f t="shared" si="3"/>
+        <v>41189</v>
+      </c>
+      <c r="B231" s="1">
+        <v>41195</v>
+      </c>
+      <c r="C231" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <f t="shared" si="3"/>
+        <v>41196</v>
+      </c>
+      <c r="B232" s="1">
+        <v>41202</v>
+      </c>
+      <c r="C232" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <f t="shared" si="3"/>
+        <v>41203</v>
+      </c>
+      <c r="B233" s="1">
+        <v>41209</v>
+      </c>
+      <c r="C233" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <f t="shared" si="3"/>
+        <v>41210</v>
+      </c>
+      <c r="B234" s="1">
+        <v>41216</v>
+      </c>
+      <c r="C234" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <f t="shared" si="3"/>
+        <v>41217</v>
+      </c>
+      <c r="B235" s="1">
+        <v>41223</v>
+      </c>
+      <c r="C235" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <f t="shared" si="3"/>
+        <v>41224</v>
+      </c>
+      <c r="B236" s="1">
+        <v>41230</v>
+      </c>
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <f t="shared" si="3"/>
+        <v>41231</v>
+      </c>
+      <c r="B237" s="1">
+        <v>41237</v>
+      </c>
+      <c r="C237">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <f t="shared" si="3"/>
+        <v>41238</v>
+      </c>
+      <c r="B238" s="1">
+        <v>41244</v>
+      </c>
+      <c r="C238" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <f t="shared" si="3"/>
+        <v>41245</v>
+      </c>
+      <c r="B239" s="1">
+        <v>41251</v>
+      </c>
+      <c r="C239" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <f t="shared" si="3"/>
+        <v>41252</v>
+      </c>
+      <c r="B240" s="1">
+        <v>41258</v>
+      </c>
+      <c r="C240" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <f t="shared" si="3"/>
+        <v>41259</v>
+      </c>
+      <c r="B241" s="1">
+        <v>41265</v>
+      </c>
+      <c r="C241">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <f t="shared" si="3"/>
+        <v>41266</v>
+      </c>
+      <c r="B242" s="1">
+        <v>41272</v>
+      </c>
+      <c r="C242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <f t="shared" si="3"/>
+        <v>41273</v>
+      </c>
+      <c r="B243" s="1">
+        <v>41279</v>
+      </c>
+      <c r="C243" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <f t="shared" si="3"/>
+        <v>41280</v>
+      </c>
+      <c r="B244" s="1">
+        <v>41286</v>
+      </c>
+      <c r="C244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <f t="shared" si="3"/>
+        <v>41287</v>
+      </c>
+      <c r="B245" s="1">
+        <v>41293</v>
+      </c>
+      <c r="C245" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <f t="shared" si="3"/>
+        <v>41294</v>
+      </c>
+      <c r="B246" s="1">
+        <v>41300</v>
+      </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <f t="shared" si="3"/>
+        <v>41301</v>
+      </c>
+      <c r="B247" s="1">
+        <v>41307</v>
+      </c>
+      <c r="C247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <f t="shared" si="3"/>
+        <v>41308</v>
+      </c>
+      <c r="B248" s="1">
+        <v>41314</v>
+      </c>
+      <c r="C248" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <f t="shared" si="3"/>
+        <v>41315</v>
+      </c>
+      <c r="B249" s="1">
+        <v>41321</v>
+      </c>
+      <c r="C249" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <f t="shared" si="3"/>
+        <v>41322</v>
+      </c>
+      <c r="B250" s="1">
+        <v>41328</v>
+      </c>
+      <c r="C250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <f t="shared" si="3"/>
+        <v>41329</v>
+      </c>
+      <c r="B251" s="1">
+        <v>41335</v>
+      </c>
+      <c r="C251" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <f t="shared" si="3"/>
+        <v>41336</v>
+      </c>
+      <c r="B252" s="1">
+        <v>41342</v>
+      </c>
+      <c r="C252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <f t="shared" si="3"/>
+        <v>41343</v>
+      </c>
+      <c r="B253" s="1">
+        <v>41349</v>
+      </c>
+      <c r="C253" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <f t="shared" si="3"/>
+        <v>41350</v>
+      </c>
+      <c r="B254" s="1">
+        <v>41356</v>
+      </c>
+      <c r="C254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <f t="shared" si="3"/>
+        <v>41357</v>
+      </c>
+      <c r="B255" s="1">
+        <v>41363</v>
+      </c>
+      <c r="C255" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <f t="shared" si="3"/>
+        <v>41364</v>
+      </c>
+      <c r="B256" s="1">
+        <v>41370</v>
+      </c>
+      <c r="C256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <f t="shared" si="3"/>
+        <v>41371</v>
+      </c>
+      <c r="B257" s="1">
+        <v>41377</v>
+      </c>
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <f t="shared" si="3"/>
+        <v>41378</v>
+      </c>
+      <c r="B258" s="1">
+        <v>41384</v>
+      </c>
+      <c r="C258" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <f t="shared" ref="A259:A322" si="4">B259-6</f>
+        <v>41385</v>
+      </c>
+      <c r="B259" s="1">
+        <v>41391</v>
+      </c>
+      <c r="C259" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <f t="shared" si="4"/>
+        <v>41392</v>
+      </c>
+      <c r="B260" s="1">
+        <v>41398</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <f t="shared" si="4"/>
+        <v>41399</v>
+      </c>
+      <c r="B261" s="1">
+        <v>41405</v>
+      </c>
+      <c r="C261" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <f t="shared" si="4"/>
+        <v>41406</v>
+      </c>
+      <c r="B262" s="1">
+        <v>41412</v>
+      </c>
+      <c r="C262" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <f t="shared" si="4"/>
+        <v>41413</v>
+      </c>
+      <c r="B263" s="1">
+        <v>41419</v>
+      </c>
+      <c r="C263" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <f t="shared" si="4"/>
+        <v>41420</v>
+      </c>
+      <c r="B264" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C264" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <f t="shared" si="4"/>
+        <v>41427</v>
+      </c>
+      <c r="B265" s="1">
+        <v>41433</v>
+      </c>
+      <c r="C265" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <f t="shared" si="4"/>
+        <v>41434</v>
+      </c>
+      <c r="B266" s="1">
+        <v>41440</v>
+      </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <f t="shared" si="4"/>
+        <v>41441</v>
+      </c>
+      <c r="B267" s="1">
+        <v>41447</v>
+      </c>
+      <c r="C267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <f t="shared" si="4"/>
+        <v>41448</v>
+      </c>
+      <c r="B268" s="1">
+        <v>41454</v>
+      </c>
+      <c r="C268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <f t="shared" si="4"/>
+        <v>41455</v>
+      </c>
+      <c r="B269" s="1">
+        <v>41461</v>
+      </c>
+      <c r="C269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <f t="shared" si="4"/>
+        <v>41462</v>
+      </c>
+      <c r="B270" s="1">
+        <v>41468</v>
+      </c>
+      <c r="C270" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <f t="shared" si="4"/>
+        <v>41469</v>
+      </c>
+      <c r="B271" s="1">
+        <v>41475</v>
+      </c>
+      <c r="C271" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <f t="shared" si="4"/>
+        <v>41476</v>
+      </c>
+      <c r="B272" s="1">
+        <v>41482</v>
+      </c>
+      <c r="C272" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <f t="shared" si="4"/>
+        <v>41483</v>
+      </c>
+      <c r="B273" s="1">
+        <v>41489</v>
+      </c>
+      <c r="C273" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <f t="shared" si="4"/>
+        <v>41490</v>
+      </c>
+      <c r="B274" s="1">
+        <v>41496</v>
+      </c>
+      <c r="C274" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <f t="shared" si="4"/>
+        <v>41497</v>
+      </c>
+      <c r="B275" s="1">
+        <v>41503</v>
+      </c>
+      <c r="C275" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <f t="shared" si="4"/>
+        <v>41504</v>
+      </c>
+      <c r="B276" s="1">
+        <v>41510</v>
+      </c>
+      <c r="C276" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <f t="shared" si="4"/>
+        <v>41511</v>
+      </c>
+      <c r="B277" s="1">
+        <v>41517</v>
+      </c>
+      <c r="C277">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <f t="shared" si="4"/>
+        <v>41518</v>
+      </c>
+      <c r="B278" s="1">
+        <v>41524</v>
+      </c>
+      <c r="C278" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <f t="shared" si="4"/>
+        <v>41525</v>
+      </c>
+      <c r="B279" s="1">
+        <v>41531</v>
+      </c>
+      <c r="C279">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <f t="shared" si="4"/>
+        <v>41532</v>
+      </c>
+      <c r="B280" s="1">
+        <v>41538</v>
+      </c>
+      <c r="C280" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <f t="shared" si="4"/>
+        <v>41539</v>
+      </c>
+      <c r="B281" s="1">
+        <v>41545</v>
+      </c>
+      <c r="C281" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <f t="shared" si="4"/>
+        <v>41546</v>
+      </c>
+      <c r="B282" s="1">
+        <v>41552</v>
+      </c>
+      <c r="C282" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <f t="shared" si="4"/>
+        <v>41553</v>
+      </c>
+      <c r="B283" s="1">
+        <v>41559</v>
+      </c>
+      <c r="C283" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <f t="shared" si="4"/>
+        <v>41560</v>
+      </c>
+      <c r="B284" s="1">
+        <v>41566</v>
+      </c>
+      <c r="C284" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <f t="shared" si="4"/>
+        <v>41567</v>
+      </c>
+      <c r="B285" s="1">
+        <v>41573</v>
+      </c>
+      <c r="C285" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <f t="shared" si="4"/>
+        <v>41574</v>
+      </c>
+      <c r="B286" s="1">
+        <v>41580</v>
+      </c>
+      <c r="C286">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <f t="shared" si="4"/>
+        <v>41581</v>
+      </c>
+      <c r="B287" s="1">
+        <v>41587</v>
+      </c>
+      <c r="C287" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <f t="shared" si="4"/>
+        <v>41588</v>
+      </c>
+      <c r="B288" s="1">
+        <v>41594</v>
+      </c>
+      <c r="C288">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <f t="shared" si="4"/>
+        <v>41595</v>
+      </c>
+      <c r="B289" s="1">
+        <v>41601</v>
+      </c>
+      <c r="C289">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <f t="shared" si="4"/>
+        <v>41602</v>
+      </c>
+      <c r="B290" s="1">
+        <v>41608</v>
+      </c>
+      <c r="C290">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <f t="shared" si="4"/>
+        <v>41609</v>
+      </c>
+      <c r="B291" s="1">
+        <v>41615</v>
+      </c>
+      <c r="C291">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <f t="shared" si="4"/>
+        <v>41616</v>
+      </c>
+      <c r="B292" s="1">
+        <v>41622</v>
+      </c>
+      <c r="C292">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <f t="shared" si="4"/>
+        <v>41623</v>
+      </c>
+      <c r="B293" s="1">
+        <v>41629</v>
+      </c>
+      <c r="C293">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <f t="shared" si="4"/>
+        <v>41630</v>
+      </c>
+      <c r="B294" s="1">
+        <v>41636</v>
+      </c>
+      <c r="C294">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <f t="shared" si="4"/>
+        <v>41637</v>
+      </c>
+      <c r="B295" s="1">
+        <v>41643</v>
+      </c>
+      <c r="C295">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <f t="shared" si="4"/>
+        <v>41644</v>
+      </c>
+      <c r="B296" s="1">
+        <v>41650</v>
+      </c>
+      <c r="C296" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <f t="shared" si="4"/>
+        <v>41651</v>
+      </c>
+      <c r="B297" s="1">
+        <v>41657</v>
+      </c>
+      <c r="C297" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <f t="shared" si="4"/>
+        <v>41658</v>
+      </c>
+      <c r="B298" s="1">
+        <v>41664</v>
+      </c>
+      <c r="C298" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <f t="shared" si="4"/>
+        <v>41665</v>
+      </c>
+      <c r="B299" s="1">
+        <v>41671</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <f t="shared" si="4"/>
+        <v>41672</v>
+      </c>
+      <c r="B300" s="1">
+        <v>41678</v>
+      </c>
+      <c r="C300" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <f t="shared" si="4"/>
+        <v>41679</v>
+      </c>
+      <c r="B301" s="1">
+        <v>41685</v>
+      </c>
+      <c r="C301" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <f t="shared" si="4"/>
+        <v>41686</v>
+      </c>
+      <c r="B302" s="1">
+        <v>41692</v>
+      </c>
+      <c r="C302" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <f t="shared" si="4"/>
+        <v>41693</v>
+      </c>
+      <c r="B303" s="1">
+        <v>41699</v>
+      </c>
+      <c r="C303" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <f t="shared" si="4"/>
+        <v>41700</v>
+      </c>
+      <c r="B304" s="1">
+        <v>41706</v>
+      </c>
+      <c r="C304" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <f t="shared" si="4"/>
+        <v>41707</v>
+      </c>
+      <c r="B305" s="1">
+        <v>41713</v>
+      </c>
+      <c r="C305" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <f t="shared" si="4"/>
+        <v>41714</v>
+      </c>
+      <c r="B306" s="1">
+        <v>41720</v>
+      </c>
+      <c r="C306" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <f t="shared" si="4"/>
+        <v>41721</v>
+      </c>
+      <c r="B307" s="1">
+        <v>41727</v>
+      </c>
+      <c r="C307" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <f t="shared" si="4"/>
+        <v>41728</v>
+      </c>
+      <c r="B308" s="1">
+        <v>41734</v>
+      </c>
+      <c r="C308" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <f t="shared" si="4"/>
+        <v>41735</v>
+      </c>
+      <c r="B309" s="1">
+        <v>41741</v>
+      </c>
+      <c r="C309" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <f t="shared" si="4"/>
+        <v>41742</v>
+      </c>
+      <c r="B310" s="1">
+        <v>41748</v>
+      </c>
+      <c r="C310" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <f t="shared" si="4"/>
+        <v>41749</v>
+      </c>
+      <c r="B311" s="1">
+        <v>41755</v>
+      </c>
+      <c r="C311" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <f t="shared" si="4"/>
+        <v>41756</v>
+      </c>
+      <c r="B312" s="1">
+        <v>41762</v>
+      </c>
+      <c r="C312">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <f t="shared" si="4"/>
+        <v>41763</v>
+      </c>
+      <c r="B313" s="1">
+        <v>41769</v>
+      </c>
+      <c r="C313" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <f t="shared" si="4"/>
+        <v>41770</v>
+      </c>
+      <c r="B314" s="1">
+        <v>41776</v>
+      </c>
+      <c r="C314" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <f t="shared" si="4"/>
+        <v>41777</v>
+      </c>
+      <c r="B315" s="1">
+        <v>41783</v>
+      </c>
+      <c r="C315" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <f t="shared" si="4"/>
+        <v>41784</v>
+      </c>
+      <c r="B316" s="1">
+        <v>41790</v>
+      </c>
+      <c r="C316" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <f t="shared" si="4"/>
+        <v>41791</v>
+      </c>
+      <c r="B317" s="1">
+        <v>41797</v>
+      </c>
+      <c r="C317" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <f t="shared" si="4"/>
+        <v>41798</v>
+      </c>
+      <c r="B318" s="1">
+        <v>41804</v>
+      </c>
+      <c r="C318" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <f t="shared" si="4"/>
+        <v>41805</v>
+      </c>
+      <c r="B319" s="1">
+        <v>41811</v>
+      </c>
+      <c r="C319" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <f t="shared" si="4"/>
+        <v>41812</v>
+      </c>
+      <c r="B320" s="1">
+        <v>41818</v>
+      </c>
+      <c r="C320" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <f t="shared" si="4"/>
+        <v>41819</v>
+      </c>
+      <c r="B321" s="1">
+        <v>41825</v>
+      </c>
+      <c r="C321" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <f t="shared" si="4"/>
+        <v>41826</v>
+      </c>
+      <c r="B322" s="1">
+        <v>41832</v>
+      </c>
+      <c r="C322">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <f t="shared" ref="A323:A386" si="5">B323-6</f>
+        <v>41833</v>
+      </c>
+      <c r="B323" s="1">
+        <v>41839</v>
+      </c>
+      <c r="C323">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <f t="shared" si="5"/>
+        <v>41840</v>
+      </c>
+      <c r="B324" s="1">
+        <v>41846</v>
+      </c>
+      <c r="C324">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <f t="shared" si="5"/>
+        <v>41847</v>
+      </c>
+      <c r="B325" s="1">
+        <v>41853</v>
+      </c>
+      <c r="C325">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <f t="shared" si="5"/>
+        <v>41854</v>
+      </c>
+      <c r="B326" s="1">
+        <v>41860</v>
+      </c>
+      <c r="C326" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <f t="shared" si="5"/>
+        <v>41861</v>
+      </c>
+      <c r="B327" s="1">
+        <v>41867</v>
+      </c>
+      <c r="C327" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <f t="shared" si="5"/>
+        <v>41868</v>
+      </c>
+      <c r="B328" s="1">
+        <v>41874</v>
+      </c>
+      <c r="C328" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <f t="shared" si="5"/>
+        <v>41875</v>
+      </c>
+      <c r="B329" s="1">
+        <v>41881</v>
+      </c>
+      <c r="C329" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <f t="shared" si="5"/>
+        <v>41882</v>
+      </c>
+      <c r="B330" s="1">
+        <v>41888</v>
+      </c>
+      <c r="C330" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <f t="shared" si="5"/>
+        <v>41889</v>
+      </c>
+      <c r="B331" s="1">
+        <v>41895</v>
+      </c>
+      <c r="C331" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <f t="shared" si="5"/>
+        <v>41896</v>
+      </c>
+      <c r="B332" s="1">
+        <v>41902</v>
+      </c>
+      <c r="C332" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <f t="shared" si="5"/>
+        <v>41903</v>
+      </c>
+      <c r="B333" s="1">
+        <v>41909</v>
+      </c>
+      <c r="C333" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <f t="shared" si="5"/>
+        <v>41910</v>
+      </c>
+      <c r="B334" s="1">
+        <v>41916</v>
+      </c>
+      <c r="C334" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <f t="shared" si="5"/>
+        <v>41917</v>
+      </c>
+      <c r="B335" s="1">
+        <v>41923</v>
+      </c>
+      <c r="C335" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <f t="shared" si="5"/>
+        <v>41924</v>
+      </c>
+      <c r="B336" s="1">
+        <v>41930</v>
+      </c>
+      <c r="C336" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <f t="shared" si="5"/>
+        <v>41931</v>
+      </c>
+      <c r="B337" s="1">
+        <v>41937</v>
+      </c>
+      <c r="C337" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <f t="shared" si="5"/>
+        <v>41938</v>
+      </c>
+      <c r="B338" s="1">
+        <v>41944</v>
+      </c>
+      <c r="C338" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <f t="shared" si="5"/>
+        <v>41945</v>
+      </c>
+      <c r="B339" s="1">
+        <v>41951</v>
+      </c>
+      <c r="C339" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <f t="shared" si="5"/>
+        <v>41952</v>
+      </c>
+      <c r="B340" s="1">
+        <v>41958</v>
+      </c>
+      <c r="C340" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <f t="shared" si="5"/>
+        <v>41959</v>
+      </c>
+      <c r="B341" s="1">
+        <v>41965</v>
+      </c>
+      <c r="C341" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <f t="shared" si="5"/>
+        <v>41966</v>
+      </c>
+      <c r="B342" s="1">
+        <v>41972</v>
+      </c>
+      <c r="C342">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <f t="shared" si="5"/>
+        <v>41973</v>
+      </c>
+      <c r="B343" s="1">
+        <v>41979</v>
+      </c>
+      <c r="C343">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <f t="shared" si="5"/>
+        <v>41980</v>
+      </c>
+      <c r="B344" s="1">
+        <v>41986</v>
+      </c>
+      <c r="C344">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <f t="shared" si="5"/>
+        <v>41987</v>
+      </c>
+      <c r="B345" s="1">
+        <v>41993</v>
+      </c>
+      <c r="C345">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <f t="shared" si="5"/>
+        <v>41994</v>
+      </c>
+      <c r="B346" s="1">
+        <v>42000</v>
+      </c>
+      <c r="C346" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <f t="shared" si="5"/>
+        <v>42001</v>
+      </c>
+      <c r="B347" s="1">
+        <v>42007</v>
+      </c>
+      <c r="C347" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <f t="shared" si="5"/>
+        <v>42008</v>
+      </c>
+      <c r="B348" s="1">
+        <v>42014</v>
+      </c>
+      <c r="C348" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <f t="shared" si="5"/>
+        <v>42015</v>
+      </c>
+      <c r="B349" s="1">
+        <v>42021</v>
+      </c>
+      <c r="C349" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <f t="shared" si="5"/>
+        <v>42022</v>
+      </c>
+      <c r="B350" s="1">
+        <v>42028</v>
+      </c>
+      <c r="C350" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <f t="shared" si="5"/>
+        <v>42029</v>
+      </c>
+      <c r="B351" s="1">
+        <v>42035</v>
+      </c>
+      <c r="C351" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <f t="shared" si="5"/>
+        <v>42036</v>
+      </c>
+      <c r="B352" s="1">
+        <v>42042</v>
+      </c>
+      <c r="C352" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <f t="shared" si="5"/>
+        <v>42043</v>
+      </c>
+      <c r="B353" s="1">
+        <v>42049</v>
+      </c>
+      <c r="C353" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <f t="shared" si="5"/>
+        <v>42050</v>
+      </c>
+      <c r="B354" s="1">
+        <v>42056</v>
+      </c>
+      <c r="C354">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <f t="shared" si="5"/>
+        <v>42057</v>
+      </c>
+      <c r="B355" s="1">
+        <v>42063</v>
+      </c>
+      <c r="C355">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <f t="shared" si="5"/>
+        <v>42064</v>
+      </c>
+      <c r="B356" s="1">
+        <v>42070</v>
+      </c>
+      <c r="C356">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <f t="shared" si="5"/>
+        <v>42071</v>
+      </c>
+      <c r="B357" s="1">
+        <v>42077</v>
+      </c>
+      <c r="C357">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <f t="shared" si="5"/>
+        <v>42078</v>
+      </c>
+      <c r="B358" s="1">
+        <v>42084</v>
+      </c>
+      <c r="C358">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <f t="shared" si="5"/>
+        <v>42085</v>
+      </c>
+      <c r="B359" s="1">
+        <v>42091</v>
+      </c>
+      <c r="C359">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <f t="shared" si="5"/>
+        <v>42092</v>
+      </c>
+      <c r="B360" s="1">
+        <v>42098</v>
+      </c>
+      <c r="C360" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <f t="shared" si="5"/>
+        <v>42099</v>
+      </c>
+      <c r="B361" s="1">
+        <v>42105</v>
+      </c>
+      <c r="C361" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <f t="shared" si="5"/>
+        <v>42106</v>
+      </c>
+      <c r="B362" s="1">
+        <v>42112</v>
+      </c>
+      <c r="C362">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <f t="shared" si="5"/>
+        <v>42113</v>
+      </c>
+      <c r="B363" s="1">
+        <v>42119</v>
+      </c>
+      <c r="C363">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <f t="shared" si="5"/>
+        <v>42120</v>
+      </c>
+      <c r="B364" s="1">
+        <v>42126</v>
+      </c>
+      <c r="C364">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <f t="shared" si="5"/>
+        <v>42127</v>
+      </c>
+      <c r="B365" s="1">
+        <v>42133</v>
+      </c>
+      <c r="C365">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <f t="shared" si="5"/>
+        <v>42134</v>
+      </c>
+      <c r="B366" s="1">
+        <v>42140</v>
+      </c>
+      <c r="C366" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <f t="shared" si="5"/>
+        <v>42141</v>
+      </c>
+      <c r="B367" s="1">
+        <v>42147</v>
+      </c>
+      <c r="C367" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <f t="shared" si="5"/>
+        <v>42148</v>
+      </c>
+      <c r="B368" s="1">
+        <v>42154</v>
+      </c>
+      <c r="C368">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <f t="shared" si="5"/>
+        <v>42155</v>
+      </c>
+      <c r="B369" s="1">
+        <v>42161</v>
+      </c>
+      <c r="C369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <f t="shared" si="5"/>
+        <v>42162</v>
+      </c>
+      <c r="B370" s="1">
+        <v>42168</v>
+      </c>
+      <c r="C370">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <f t="shared" si="5"/>
+        <v>42169</v>
+      </c>
+      <c r="B371" s="1">
+        <v>42175</v>
+      </c>
+      <c r="C371">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <f t="shared" si="5"/>
+        <v>42176</v>
+      </c>
+      <c r="B372" s="1">
+        <v>42182</v>
+      </c>
+      <c r="C372" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <f t="shared" si="5"/>
+        <v>42183</v>
+      </c>
+      <c r="B373" s="1">
+        <v>42189</v>
+      </c>
+      <c r="C373">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <f t="shared" si="5"/>
+        <v>42190</v>
+      </c>
+      <c r="B374" s="1">
+        <v>42196</v>
+      </c>
+      <c r="C374">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <f t="shared" si="5"/>
+        <v>42197</v>
+      </c>
+      <c r="B375" s="1">
+        <v>42203</v>
+      </c>
+      <c r="C375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <f t="shared" si="5"/>
+        <v>42204</v>
+      </c>
+      <c r="B376" s="1">
+        <v>42210</v>
+      </c>
+      <c r="C376">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <f t="shared" si="5"/>
+        <v>42211</v>
+      </c>
+      <c r="B377" s="1">
+        <v>42217</v>
+      </c>
+      <c r="C377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <f t="shared" si="5"/>
+        <v>42218</v>
+      </c>
+      <c r="B378" s="1">
+        <v>42224</v>
+      </c>
+      <c r="C378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <f t="shared" si="5"/>
+        <v>42225</v>
+      </c>
+      <c r="B379" s="1">
+        <v>42231</v>
+      </c>
+      <c r="C379">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <f t="shared" si="5"/>
+        <v>42232</v>
+      </c>
+      <c r="B380" s="1">
+        <v>42238</v>
+      </c>
+      <c r="C380">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <f t="shared" si="5"/>
+        <v>42239</v>
+      </c>
+      <c r="B381" s="1">
+        <v>42245</v>
+      </c>
+      <c r="C381">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <f t="shared" si="5"/>
+        <v>42246</v>
+      </c>
+      <c r="B382" s="1">
+        <v>42252</v>
+      </c>
+      <c r="C382">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <f t="shared" si="5"/>
+        <v>42253</v>
+      </c>
+      <c r="B383" s="1">
+        <v>42259</v>
+      </c>
+      <c r="C383">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <f t="shared" si="5"/>
+        <v>42260</v>
+      </c>
+      <c r="B384" s="1">
+        <v>42266</v>
+      </c>
+      <c r="C384">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <f t="shared" si="5"/>
+        <v>42267</v>
+      </c>
+      <c r="B385" s="1">
+        <v>42273</v>
+      </c>
+      <c r="C385">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <f t="shared" si="5"/>
+        <v>42274</v>
+      </c>
+      <c r="B386" s="1">
+        <v>42280</v>
+      </c>
+      <c r="C386">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <f t="shared" ref="A387:A450" si="6">B387-6</f>
+        <v>42281</v>
+      </c>
+      <c r="B387" s="1">
+        <v>42287</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <f t="shared" si="6"/>
+        <v>42288</v>
+      </c>
+      <c r="B388" s="1">
+        <v>42294</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <f t="shared" si="6"/>
+        <v>42295</v>
+      </c>
+      <c r="B389" s="1">
+        <v>42301</v>
+      </c>
+      <c r="C389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <f t="shared" si="6"/>
+        <v>42302</v>
+      </c>
+      <c r="B390" s="1">
+        <v>42308</v>
+      </c>
+      <c r="C390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <f t="shared" si="6"/>
+        <v>42309</v>
+      </c>
+      <c r="B391" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <f t="shared" si="6"/>
+        <v>42316</v>
+      </c>
+      <c r="B392" s="1">
+        <v>42322</v>
+      </c>
+      <c r="C392">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <f t="shared" si="6"/>
+        <v>42323</v>
+      </c>
+      <c r="B393" s="1">
+        <v>42329</v>
+      </c>
+      <c r="C393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <f t="shared" si="6"/>
+        <v>42330</v>
+      </c>
+      <c r="B394" s="1">
+        <v>42336</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <f t="shared" si="6"/>
+        <v>42337</v>
+      </c>
+      <c r="B395" s="1">
+        <v>42343</v>
+      </c>
+      <c r="C395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <f t="shared" si="6"/>
+        <v>42344</v>
+      </c>
+      <c r="B396" s="1">
+        <v>42350</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <f t="shared" si="6"/>
+        <v>42351</v>
+      </c>
+      <c r="B397" s="1">
+        <v>42357</v>
+      </c>
+      <c r="C397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <f t="shared" si="6"/>
+        <v>42358</v>
+      </c>
+      <c r="B398" s="1">
+        <v>42364</v>
+      </c>
+      <c r="C398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <f t="shared" si="6"/>
+        <v>42365</v>
+      </c>
+      <c r="B399" s="1">
+        <v>42371</v>
+      </c>
+      <c r="C399">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <f t="shared" si="6"/>
+        <v>42372</v>
+      </c>
+      <c r="B400" s="1">
+        <v>42378</v>
+      </c>
+      <c r="C400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <f t="shared" si="6"/>
+        <v>42379</v>
+      </c>
+      <c r="B401" s="1">
+        <v>42385</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <f t="shared" si="6"/>
+        <v>42386</v>
+      </c>
+      <c r="B402" s="1">
+        <v>42392</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <f t="shared" si="6"/>
+        <v>42393</v>
+      </c>
+      <c r="B403" s="1">
+        <v>42399</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <f t="shared" si="6"/>
+        <v>42400</v>
+      </c>
+      <c r="B404" s="1">
+        <v>42406</v>
+      </c>
+      <c r="C404">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <f t="shared" si="6"/>
+        <v>42407</v>
+      </c>
+      <c r="B405" s="1">
+        <v>42413</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <f t="shared" si="6"/>
+        <v>42414</v>
+      </c>
+      <c r="B406" s="1">
+        <v>42420</v>
+      </c>
+      <c r="C406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <f t="shared" si="6"/>
+        <v>42421</v>
+      </c>
+      <c r="B407" s="1">
+        <v>42427</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <f t="shared" si="6"/>
+        <v>42428</v>
+      </c>
+      <c r="B408" s="1">
+        <v>42434</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <f t="shared" si="6"/>
+        <v>42435</v>
+      </c>
+      <c r="B409" s="1">
+        <v>42441</v>
+      </c>
+      <c r="C409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <f t="shared" si="6"/>
+        <v>42442</v>
+      </c>
+      <c r="B410" s="1">
+        <v>42448</v>
+      </c>
+      <c r="C410">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <f t="shared" si="6"/>
+        <v>42449</v>
+      </c>
+      <c r="B411" s="1">
+        <v>42455</v>
+      </c>
+      <c r="C411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <f t="shared" si="6"/>
+        <v>42456</v>
+      </c>
+      <c r="B412" s="1">
+        <v>42462</v>
+      </c>
+      <c r="C412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <f t="shared" si="6"/>
+        <v>42463</v>
+      </c>
+      <c r="B413" s="1">
+        <v>42469</v>
+      </c>
+      <c r="C413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <f t="shared" si="6"/>
+        <v>42470</v>
+      </c>
+      <c r="B414" s="1">
+        <v>42476</v>
+      </c>
+      <c r="C414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <f t="shared" si="6"/>
+        <v>42477</v>
+      </c>
+      <c r="B415" s="1">
+        <v>42483</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <f t="shared" si="6"/>
+        <v>42484</v>
+      </c>
+      <c r="B416" s="1">
+        <v>42490</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <f t="shared" si="6"/>
+        <v>42491</v>
+      </c>
+      <c r="B417" s="1">
+        <v>42497</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <f t="shared" si="6"/>
+        <v>42498</v>
+      </c>
+      <c r="B418" s="1">
+        <v>42504</v>
+      </c>
+      <c r="C418">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <f t="shared" si="6"/>
+        <v>42505</v>
+      </c>
+      <c r="B419" s="1">
+        <v>42511</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <f t="shared" si="6"/>
+        <v>42512</v>
+      </c>
+      <c r="B420" s="1">
+        <v>42518</v>
+      </c>
+      <c r="C420">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <f t="shared" si="6"/>
+        <v>42519</v>
+      </c>
+      <c r="B421" s="1">
+        <v>42525</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <f t="shared" si="6"/>
+        <v>42526</v>
+      </c>
+      <c r="B422" s="1">
+        <v>42532</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <f t="shared" si="6"/>
+        <v>42533</v>
+      </c>
+      <c r="B423" s="1">
+        <v>42539</v>
+      </c>
+      <c r="C423">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <f t="shared" si="6"/>
+        <v>42540</v>
+      </c>
+      <c r="B424" s="1">
+        <v>42546</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <f t="shared" si="6"/>
+        <v>42547</v>
+      </c>
+      <c r="B425" s="1">
+        <v>42553</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <f t="shared" si="6"/>
+        <v>42554</v>
+      </c>
+      <c r="B426" s="1">
+        <v>42560</v>
+      </c>
+      <c r="C426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <f t="shared" si="6"/>
+        <v>42561</v>
+      </c>
+      <c r="B427" s="1">
+        <v>42567</v>
+      </c>
+      <c r="C427">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <f t="shared" si="6"/>
+        <v>42568</v>
+      </c>
+      <c r="B428" s="1">
+        <v>42574</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <f t="shared" si="6"/>
+        <v>42575</v>
+      </c>
+      <c r="B429" s="1">
+        <v>42581</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <f t="shared" si="6"/>
+        <v>42582</v>
+      </c>
+      <c r="B430" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <f t="shared" si="6"/>
+        <v>42589</v>
+      </c>
+      <c r="B431" s="1">
+        <v>42595</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <f t="shared" si="6"/>
+        <v>42596</v>
+      </c>
+      <c r="B432" s="1">
+        <v>42602</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <f t="shared" si="6"/>
+        <v>42603</v>
+      </c>
+      <c r="B433" s="1">
+        <v>42609</v>
+      </c>
+      <c r="C433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <f t="shared" si="6"/>
+        <v>42610</v>
+      </c>
+      <c r="B434" s="1">
+        <v>42616</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <f t="shared" si="6"/>
+        <v>42617</v>
+      </c>
+      <c r="B435" s="1">
+        <v>42623</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <f t="shared" si="6"/>
+        <v>42624</v>
+      </c>
+      <c r="B436" s="1">
+        <v>42630</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <f t="shared" si="6"/>
+        <v>42631</v>
+      </c>
+      <c r="B437" s="1">
+        <v>42637</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <f t="shared" si="6"/>
+        <v>42638</v>
+      </c>
+      <c r="B438" s="1">
+        <v>42644</v>
+      </c>
+      <c r="C438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <f t="shared" si="6"/>
+        <v>42645</v>
+      </c>
+      <c r="B439" s="1">
+        <v>42651</v>
+      </c>
+      <c r="C439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <f t="shared" si="6"/>
+        <v>42652</v>
+      </c>
+      <c r="B440" s="1">
+        <v>42658</v>
+      </c>
+      <c r="C440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <f t="shared" si="6"/>
+        <v>42659</v>
+      </c>
+      <c r="B441" s="1">
+        <v>42665</v>
+      </c>
+      <c r="C441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <f t="shared" si="6"/>
+        <v>42666</v>
+      </c>
+      <c r="B442" s="1">
+        <v>42672</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <f t="shared" si="6"/>
+        <v>42673</v>
+      </c>
+      <c r="B443" s="1">
+        <v>42679</v>
+      </c>
+      <c r="C443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <f t="shared" si="6"/>
+        <v>42680</v>
+      </c>
+      <c r="B444" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <f t="shared" si="6"/>
+        <v>42687</v>
+      </c>
+      <c r="B445" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <f t="shared" si="6"/>
+        <v>42694</v>
+      </c>
+      <c r="B446" s="1">
+        <v>42700</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <f t="shared" si="6"/>
+        <v>42701</v>
+      </c>
+      <c r="B447" s="1">
+        <v>42707</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <f t="shared" si="6"/>
+        <v>42708</v>
+      </c>
+      <c r="B448" s="1">
+        <v>42714</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <f t="shared" si="6"/>
+        <v>42715</v>
+      </c>
+      <c r="B449" s="1">
+        <v>42721</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <f t="shared" si="6"/>
+        <v>42722</v>
+      </c>
+      <c r="B450" s="1">
+        <v>42728</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <f t="shared" ref="A451:A514" si="7">B451-6</f>
+        <v>42729</v>
+      </c>
+      <c r="B451" s="1">
+        <v>42735</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <f t="shared" si="7"/>
+        <v>42736</v>
+      </c>
+      <c r="B452" s="1">
+        <v>42742</v>
+      </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <f t="shared" si="7"/>
+        <v>42743</v>
+      </c>
+      <c r="B453" s="1">
+        <v>42749</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <f t="shared" si="7"/>
+        <v>42750</v>
+      </c>
+      <c r="B454" s="1">
+        <v>42756</v>
+      </c>
+      <c r="C454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <f t="shared" si="7"/>
+        <v>42757</v>
+      </c>
+      <c r="B455" s="1">
+        <v>42763</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <f t="shared" si="7"/>
+        <v>42764</v>
+      </c>
+      <c r="B456" s="1">
+        <v>42770</v>
+      </c>
+      <c r="C456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <f t="shared" si="7"/>
+        <v>42771</v>
+      </c>
+      <c r="B457" s="1">
+        <v>42777</v>
+      </c>
+      <c r="C457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <f t="shared" si="7"/>
+        <v>42778</v>
+      </c>
+      <c r="B458" s="1">
+        <v>42784</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <f t="shared" si="7"/>
+        <v>42785</v>
+      </c>
+      <c r="B459" s="1">
+        <v>42791</v>
+      </c>
+      <c r="C459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <f t="shared" si="7"/>
+        <v>42792</v>
+      </c>
+      <c r="B460" s="1">
+        <v>42798</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <f t="shared" si="7"/>
+        <v>42799</v>
+      </c>
+      <c r="B461" s="1">
+        <v>42805</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <f t="shared" si="7"/>
+        <v>42806</v>
+      </c>
+      <c r="B462" s="1">
+        <v>42812</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <f t="shared" si="7"/>
+        <v>42813</v>
+      </c>
+      <c r="B463" s="1">
+        <v>42819</v>
+      </c>
+      <c r="C463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <f t="shared" si="7"/>
+        <v>42820</v>
+      </c>
+      <c r="B464" s="1">
+        <v>42826</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <f t="shared" si="7"/>
+        <v>42827</v>
+      </c>
+      <c r="B465" s="1">
+        <v>42833</v>
+      </c>
+      <c r="C465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <f t="shared" si="7"/>
+        <v>42834</v>
+      </c>
+      <c r="B466" s="1">
+        <v>42840</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <f t="shared" si="7"/>
+        <v>42841</v>
+      </c>
+      <c r="B467" s="1">
+        <v>42847</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <f t="shared" si="7"/>
+        <v>42848</v>
+      </c>
+      <c r="B468" s="1">
+        <v>42854</v>
+      </c>
+      <c r="C468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <f t="shared" si="7"/>
+        <v>42855</v>
+      </c>
+      <c r="B469" s="1">
+        <v>42861</v>
+      </c>
+      <c r="C469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <f t="shared" si="7"/>
+        <v>42862</v>
+      </c>
+      <c r="B470" s="1">
+        <v>42868</v>
+      </c>
+      <c r="C470">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <f t="shared" si="7"/>
+        <v>42869</v>
+      </c>
+      <c r="B471" s="1">
+        <v>42875</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <f t="shared" si="7"/>
+        <v>42876</v>
+      </c>
+      <c r="B472" s="1">
+        <v>42882</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <f t="shared" si="7"/>
+        <v>42883</v>
+      </c>
+      <c r="B473" s="1">
+        <v>42889</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <f t="shared" si="7"/>
+        <v>42890</v>
+      </c>
+      <c r="B474" s="1">
+        <v>42896</v>
+      </c>
+      <c r="C474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <f t="shared" si="7"/>
+        <v>42897</v>
+      </c>
+      <c r="B475" s="1">
+        <v>42903</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <f t="shared" si="7"/>
+        <v>42904</v>
+      </c>
+      <c r="B476" s="1">
+        <v>42910</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <f t="shared" si="7"/>
+        <v>42911</v>
+      </c>
+      <c r="B477" s="1">
+        <v>42917</v>
+      </c>
+      <c r="C477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <f t="shared" si="7"/>
+        <v>42918</v>
+      </c>
+      <c r="B478" s="1">
+        <v>42924</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <f t="shared" si="7"/>
+        <v>42925</v>
+      </c>
+      <c r="B479" s="1">
+        <v>42931</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <f t="shared" si="7"/>
+        <v>42932</v>
+      </c>
+      <c r="B480" s="1">
+        <v>42938</v>
+      </c>
+      <c r="C480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <f t="shared" si="7"/>
+        <v>42939</v>
+      </c>
+      <c r="B481" s="1">
+        <v>42945</v>
+      </c>
+      <c r="C481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <f t="shared" si="7"/>
+        <v>42946</v>
+      </c>
+      <c r="B482" s="1">
+        <v>42952</v>
+      </c>
+      <c r="C482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <f t="shared" si="7"/>
+        <v>42953</v>
+      </c>
+      <c r="B483" s="1">
+        <v>42959</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <f t="shared" si="7"/>
+        <v>42960</v>
+      </c>
+      <c r="B484" s="1">
+        <v>42966</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <f t="shared" si="7"/>
+        <v>42967</v>
+      </c>
+      <c r="B485" s="1">
+        <v>42973</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <f t="shared" si="7"/>
+        <v>42974</v>
+      </c>
+      <c r="B486" s="1">
+        <v>42980</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <f t="shared" si="7"/>
+        <v>42981</v>
+      </c>
+      <c r="B487" s="1">
+        <v>42987</v>
+      </c>
+      <c r="C487">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <f t="shared" si="7"/>
+        <v>42988</v>
+      </c>
+      <c r="B488" s="1">
+        <v>42994</v>
+      </c>
+      <c r="C488">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <f t="shared" si="7"/>
+        <v>42995</v>
+      </c>
+      <c r="B489" s="1">
+        <v>43001</v>
+      </c>
+      <c r="C489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <f t="shared" si="7"/>
+        <v>43002</v>
+      </c>
+      <c r="B490" s="1">
+        <v>43008</v>
+      </c>
+      <c r="C490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <f t="shared" si="7"/>
+        <v>43009</v>
+      </c>
+      <c r="B491" s="1">
+        <v>43015</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <f t="shared" si="7"/>
+        <v>43016</v>
+      </c>
+      <c r="B492" s="1">
+        <v>43022</v>
+      </c>
+      <c r="C492">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <f t="shared" si="7"/>
+        <v>43023</v>
+      </c>
+      <c r="B493" s="1">
+        <v>43029</v>
+      </c>
+      <c r="C493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <f t="shared" si="7"/>
+        <v>43030</v>
+      </c>
+      <c r="B494" s="1">
+        <v>43036</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <f t="shared" si="7"/>
+        <v>43037</v>
+      </c>
+      <c r="B495" s="1">
+        <v>43043</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <f t="shared" si="7"/>
+        <v>43044</v>
+      </c>
+      <c r="B496" s="1">
+        <v>43050</v>
+      </c>
+      <c r="C496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <f t="shared" si="7"/>
+        <v>43051</v>
+      </c>
+      <c r="B497" s="1">
+        <v>43057</v>
+      </c>
+      <c r="C497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <f t="shared" si="7"/>
+        <v>43058</v>
+      </c>
+      <c r="B498" s="1">
+        <v>43064</v>
+      </c>
+      <c r="C498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <f t="shared" si="7"/>
+        <v>43065</v>
+      </c>
+      <c r="B499" s="1">
+        <v>43071</v>
+      </c>
+      <c r="C499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <f t="shared" si="7"/>
+        <v>43072</v>
+      </c>
+      <c r="B500" s="1">
+        <v>43078</v>
+      </c>
+      <c r="C500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <f t="shared" si="7"/>
+        <v>43079</v>
+      </c>
+      <c r="B501" s="1">
+        <v>43085</v>
+      </c>
+      <c r="C501">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <f t="shared" si="7"/>
+        <v>43086</v>
+      </c>
+      <c r="B502" s="1">
+        <v>43092</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <f t="shared" si="7"/>
+        <v>43093</v>
+      </c>
+      <c r="B503" s="1">
+        <v>43099</v>
+      </c>
+      <c r="C503">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <f t="shared" si="7"/>
+        <v>43100</v>
+      </c>
+      <c r="B504" s="1">
+        <v>43106</v>
+      </c>
+      <c r="C504">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <f t="shared" si="7"/>
+        <v>43107</v>
+      </c>
+      <c r="B505" s="1">
+        <v>43113</v>
+      </c>
+      <c r="C505">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <f t="shared" si="7"/>
+        <v>43114</v>
+      </c>
+      <c r="B506" s="1">
+        <v>43120</v>
+      </c>
+      <c r="C506">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <f t="shared" si="7"/>
+        <v>43121</v>
+      </c>
+      <c r="B507" s="1">
+        <v>43127</v>
+      </c>
+      <c r="C507">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <f t="shared" si="7"/>
+        <v>43128</v>
+      </c>
+      <c r="B508" s="1">
+        <v>43134</v>
+      </c>
+      <c r="C508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <f t="shared" si="7"/>
+        <v>43135</v>
+      </c>
+      <c r="B509" s="1">
+        <v>43141</v>
+      </c>
+      <c r="C509">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <f t="shared" si="7"/>
+        <v>43142</v>
+      </c>
+      <c r="B510" s="1">
+        <v>43148</v>
+      </c>
+      <c r="C510">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <f t="shared" si="7"/>
+        <v>43149</v>
+      </c>
+      <c r="B511" s="1">
+        <v>43155</v>
+      </c>
+      <c r="C511">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <f t="shared" si="7"/>
+        <v>43156</v>
+      </c>
+      <c r="B512" s="1">
+        <v>43162</v>
+      </c>
+      <c r="C512">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <f t="shared" si="7"/>
+        <v>43163</v>
+      </c>
+      <c r="B513" s="1">
+        <v>43169</v>
+      </c>
+      <c r="C513">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <f t="shared" si="7"/>
+        <v>43170</v>
+      </c>
+      <c r="B514" s="1">
+        <v>43176</v>
+      </c>
+      <c r="C514">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <f t="shared" ref="A515:A540" si="8">B515-6</f>
+        <v>43177</v>
+      </c>
+      <c r="B515" s="1">
+        <v>43183</v>
+      </c>
+      <c r="C515">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <f t="shared" si="8"/>
+        <v>43184</v>
+      </c>
+      <c r="B516" s="1">
+        <v>43190</v>
+      </c>
+      <c r="C516">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <f t="shared" si="8"/>
+        <v>43191</v>
+      </c>
+      <c r="B517" s="1">
+        <v>43197</v>
+      </c>
+      <c r="C517">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <f t="shared" si="8"/>
+        <v>43198</v>
+      </c>
+      <c r="B518" s="1">
+        <v>43204</v>
+      </c>
+      <c r="C518">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <f t="shared" si="8"/>
+        <v>43205</v>
+      </c>
+      <c r="B519" s="1">
+        <v>43211</v>
+      </c>
+      <c r="C519">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <f t="shared" si="8"/>
+        <v>43212</v>
+      </c>
+      <c r="B520" s="1">
+        <v>43218</v>
+      </c>
+      <c r="C520">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <f t="shared" si="8"/>
+        <v>43219</v>
+      </c>
+      <c r="B521" s="1">
+        <v>43225</v>
+      </c>
+      <c r="C521">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <f t="shared" si="8"/>
+        <v>43226</v>
+      </c>
+      <c r="B522" s="1">
+        <v>43232</v>
+      </c>
+      <c r="C522">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <f t="shared" si="8"/>
+        <v>43233</v>
+      </c>
+      <c r="B523" s="1">
+        <v>43239</v>
+      </c>
+      <c r="C523">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <f t="shared" si="8"/>
+        <v>43240</v>
+      </c>
+      <c r="B524" s="1">
+        <v>43246</v>
+      </c>
+      <c r="C524">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <f t="shared" si="8"/>
+        <v>43247</v>
+      </c>
+      <c r="B525" s="1">
+        <v>43253</v>
+      </c>
+      <c r="C525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <f t="shared" si="8"/>
+        <v>43254</v>
+      </c>
+      <c r="B526" s="1">
+        <v>43260</v>
+      </c>
+      <c r="C526">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <f t="shared" si="8"/>
+        <v>43261</v>
+      </c>
+      <c r="B527" s="1">
+        <v>43267</v>
+      </c>
+      <c r="C527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <f t="shared" si="8"/>
+        <v>43268</v>
+      </c>
+      <c r="B528" s="1">
+        <v>43274</v>
+      </c>
+      <c r="C528">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <f t="shared" si="8"/>
+        <v>43275</v>
+      </c>
+      <c r="B529" s="1">
+        <v>43281</v>
+      </c>
+      <c r="C529">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <f t="shared" si="8"/>
+        <v>43282</v>
+      </c>
+      <c r="B530" s="1">
+        <v>43288</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <f t="shared" si="8"/>
+        <v>43289</v>
+      </c>
+      <c r="B531" s="1">
+        <v>43295</v>
+      </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <f t="shared" si="8"/>
+        <v>43296</v>
+      </c>
+      <c r="B532" s="1">
+        <v>43302</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <f t="shared" si="8"/>
+        <v>43303</v>
+      </c>
+      <c r="B533" s="1">
+        <v>43309</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <f t="shared" si="8"/>
+        <v>43310</v>
+      </c>
+      <c r="B534" s="1">
+        <v>43316</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <f t="shared" si="8"/>
+        <v>43317</v>
+      </c>
+      <c r="B535" s="1">
+        <v>43323</v>
+      </c>
+      <c r="C535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <f t="shared" si="8"/>
+        <v>43324</v>
+      </c>
+      <c r="B536" s="1">
+        <v>43330</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <f t="shared" si="8"/>
+        <v>43331</v>
+      </c>
+      <c r="B537" s="1">
+        <v>43337</v>
+      </c>
+      <c r="C537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <f t="shared" si="8"/>
+        <v>43338</v>
+      </c>
+      <c r="B538" s="1">
+        <v>43344</v>
+      </c>
+      <c r="C538">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <f t="shared" si="8"/>
+        <v>43345</v>
+      </c>
+      <c r="B539" s="1">
+        <v>43351</v>
+      </c>
+      <c r="C539">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <f t="shared" si="8"/>
+        <v>43352</v>
+      </c>
+      <c r="B540" s="1">
+        <v>43358</v>
+      </c>
+      <c r="C540">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4-childrens-series/harry-potter.xlsx
+++ b/4-childrens-series/harry-potter.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AA288C01-176F-E341-BC10-DD41BF107589}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{65D4A22F-59C9-E947-8877-B2A6ACDA4FD3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="2560" windowWidth="24160" windowHeight="23620" activeTab="2" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
+    <workbookView xWindow="8440" yWindow="2560" windowWidth="24160" windowHeight="23620" activeTab="3" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
     <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Correlation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="25">
   <si>
     <t>Published Date</t>
   </si>
@@ -90,6 +91,18 @@
   </si>
   <si>
     <t>Box Office Gross</t>
+  </si>
+  <si>
+    <t>Overall Correlation:</t>
+  </si>
+  <si>
+    <t>Half-Blood Prince Correlation:</t>
+  </si>
+  <si>
+    <t>Deathly Hallows 1 Correlation:</t>
+  </si>
+  <si>
+    <t>Deathly Hallows 2 Correlation:</t>
   </si>
 </sst>
 </file>
@@ -8608,8 +8621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF899AB-7560-0D47-989C-4F7AF6A72502}">
   <dimension ref="A1:C430"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13358,8 +13371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2C108A-41A3-0F41-A129-F5027949B457}">
   <dimension ref="A1:D540"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20103,4 +20116,536 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6976ECE3-1B23-2E4B-8483-07236EE76EA0}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>136241423</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <f>CORREL(A2:A44,B2:B44)</f>
+        <v>-0.57378495929268614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>76119425</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>37532997</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>21083840</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <f>CORREL(A2:A11,B2:B11)</f>
+        <v>-0.71574499278280523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>11260386</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6929882</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>4385748</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <f>CORREL(A12:A27,B12:B27)</f>
+        <v>-0.49110870194677769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2643730</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>12867</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>3550</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <f>CORREL(A28:A44,B28:B44)</f>
+        <v>-0.55806313373625416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>125017372</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>94038757</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>25462987</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>13153605</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>8050897</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>7271017</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>10538580</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>4128555</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>2141702</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>1537296</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>882724</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>458705</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>532237</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>255162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>171370</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>121799</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>133485465</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>125449251</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>52614757</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>27300651</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>15857926</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>9752263</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>5498700</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>3656003</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>3202184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>1157544</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>734299</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>458141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>459344</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>528882</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>100538</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>53011</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>18467</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4-childrens-series/harry-potter.xlsx
+++ b/4-childrens-series/harry-potter.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindsayhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{65D4A22F-59C9-E947-8877-B2A6ACDA4FD3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D95EB9-EC07-FF4C-A79B-DB890723C6B2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8440" yWindow="2560" windowWidth="24160" windowHeight="23620" activeTab="3" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
+    <workbookView xWindow="4640" yWindow="460" windowWidth="24160" windowHeight="16400" activeTab="4" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
     <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="Box Office $ Correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="Rank + In Theaters Corr" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="30">
   <si>
     <t>Published Date</t>
   </si>
@@ -103,6 +104,21 @@
   </si>
   <si>
     <t>Deathly Hallows 2 Correlation:</t>
+  </si>
+  <si>
+    <t>Week Starts</t>
+  </si>
+  <si>
+    <t>Week Ends</t>
+  </si>
+  <si>
+    <t>In Theaters? (1 = Y, 0 = N)</t>
+  </si>
+  <si>
+    <t>Correlation:</t>
+  </si>
+  <si>
+    <t>Correlation once first movie came out:</t>
   </si>
 </sst>
 </file>
@@ -481,7 +497,7 @@
   <dimension ref="A1:E541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="B1" sqref="B1:E540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20122,7 +20138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6976ECE3-1B23-2E4B-8483-07236EE76EA0}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -20648,4 +20664,4686 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21032E58-CC80-274F-A1FE-7A5024BE3F3C}">
+  <dimension ref="A1:F310"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f t="shared" ref="A2:A40" si="0">B2-6</f>
+        <v>39607</v>
+      </c>
+      <c r="B2" s="1">
+        <v>39613</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>CORREL(C2:C310,D2:D310)</f>
+        <v>0.20626665438068809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f t="shared" si="0"/>
+        <v>39614</v>
+      </c>
+      <c r="B3" s="1">
+        <v>39620</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>39621</v>
+      </c>
+      <c r="B4" s="1">
+        <v>39627</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>39628</v>
+      </c>
+      <c r="B5" s="1">
+        <v>39634</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>CORREL(C35:C310,D35:D310)</f>
+        <v>0.24092085556254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>39635</v>
+      </c>
+      <c r="B6" s="1">
+        <v>39641</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>39642</v>
+      </c>
+      <c r="B7" s="1">
+        <v>39648</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>39649</v>
+      </c>
+      <c r="B8" s="1">
+        <v>39655</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>39656</v>
+      </c>
+      <c r="B9" s="1">
+        <v>39662</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>39663</v>
+      </c>
+      <c r="B10" s="1">
+        <v>39669</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>39670</v>
+      </c>
+      <c r="B11" s="1">
+        <v>39676</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>39677</v>
+      </c>
+      <c r="B12" s="1">
+        <v>39683</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>39684</v>
+      </c>
+      <c r="B13" s="1">
+        <v>39690</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>39691</v>
+      </c>
+      <c r="B14" s="1">
+        <v>39697</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>39698</v>
+      </c>
+      <c r="B15" s="1">
+        <v>39704</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>39782</v>
+      </c>
+      <c r="B16" s="1">
+        <v>39788</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>39789</v>
+      </c>
+      <c r="B17" s="1">
+        <v>39795</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>39796</v>
+      </c>
+      <c r="B18" s="1">
+        <v>39802</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>39803</v>
+      </c>
+      <c r="B19" s="1">
+        <v>39809</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>39810</v>
+      </c>
+      <c r="B20" s="1">
+        <v>39816</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>39817</v>
+      </c>
+      <c r="B21" s="1">
+        <v>39823</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>39824</v>
+      </c>
+      <c r="B22" s="1">
+        <v>39830</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>39831</v>
+      </c>
+      <c r="B23" s="1">
+        <v>39837</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>39838</v>
+      </c>
+      <c r="B24" s="1">
+        <v>39844</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>39845</v>
+      </c>
+      <c r="B25" s="1">
+        <v>39851</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>39852</v>
+      </c>
+      <c r="B26" s="1">
+        <v>39858</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>39859</v>
+      </c>
+      <c r="B27" s="1">
+        <v>39865</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>39866</v>
+      </c>
+      <c r="B28" s="1">
+        <v>39872</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>39873</v>
+      </c>
+      <c r="B29" s="1">
+        <v>39879</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>39880</v>
+      </c>
+      <c r="B30" s="1">
+        <v>39886</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>39887</v>
+      </c>
+      <c r="B31" s="1">
+        <v>39893</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>39894</v>
+      </c>
+      <c r="B32" s="1">
+        <v>39900</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>39985</v>
+      </c>
+      <c r="B33" s="1">
+        <v>39991</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>39992</v>
+      </c>
+      <c r="B34" s="1">
+        <v>39998</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>39999</v>
+      </c>
+      <c r="B35" s="1">
+        <v>40005</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>40006</v>
+      </c>
+      <c r="B36" s="1">
+        <v>40012</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>40013</v>
+      </c>
+      <c r="B37" s="1">
+        <v>40019</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>40020</v>
+      </c>
+      <c r="B38" s="1">
+        <v>40026</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>40027</v>
+      </c>
+      <c r="B39" s="1">
+        <v>40033</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>40034</v>
+      </c>
+      <c r="B40" s="1">
+        <v>40040</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" ref="A41:A47" si="1">B41-6</f>
+        <v>40041</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40047</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>40048</v>
+      </c>
+      <c r="B42" s="1">
+        <v>40054</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>40055</v>
+      </c>
+      <c r="B43" s="1">
+        <v>40061</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>40153</v>
+      </c>
+      <c r="B44" s="1">
+        <v>40159</v>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>40160</v>
+      </c>
+      <c r="B45" s="1">
+        <v>40166</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>40168</v>
+      </c>
+      <c r="B46" s="1">
+        <v>40174</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>40483</v>
+      </c>
+      <c r="B47" s="1">
+        <v>40489</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" ref="A48:A96" si="2">B48-6</f>
+        <v>40490</v>
+      </c>
+      <c r="B48" s="1">
+        <v>40496</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="2"/>
+        <v>40497</v>
+      </c>
+      <c r="B49" s="1">
+        <v>40503</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="2"/>
+        <v>40504</v>
+      </c>
+      <c r="B50" s="1">
+        <v>40510</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="2"/>
+        <v>40511</v>
+      </c>
+      <c r="B51" s="1">
+        <v>40517</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="2"/>
+        <v>40518</v>
+      </c>
+      <c r="B52" s="1">
+        <v>40524</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="2"/>
+        <v>40525</v>
+      </c>
+      <c r="B53" s="1">
+        <v>40531</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="2"/>
+        <v>40532</v>
+      </c>
+      <c r="B54" s="1">
+        <v>40538</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="2"/>
+        <v>40539</v>
+      </c>
+      <c r="B55" s="1">
+        <v>40545</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="2"/>
+        <v>40546</v>
+      </c>
+      <c r="B56" s="1">
+        <v>40552</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f t="shared" si="2"/>
+        <v>40553</v>
+      </c>
+      <c r="B57" s="1">
+        <v>40559</v>
+      </c>
+      <c r="C57">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="2"/>
+        <v>40560</v>
+      </c>
+      <c r="B58" s="1">
+        <v>40566</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f t="shared" si="2"/>
+        <v>40567</v>
+      </c>
+      <c r="B59" s="1">
+        <v>40573</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f t="shared" si="2"/>
+        <v>40573</v>
+      </c>
+      <c r="B60" s="1">
+        <v>40579</v>
+      </c>
+      <c r="C60">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f t="shared" si="2"/>
+        <v>40580</v>
+      </c>
+      <c r="B61" s="1">
+        <v>40586</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <f t="shared" si="2"/>
+        <v>40601</v>
+      </c>
+      <c r="B62" s="1">
+        <v>40607</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <f t="shared" si="2"/>
+        <v>40608</v>
+      </c>
+      <c r="B63" s="1">
+        <v>40614</v>
+      </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <f t="shared" si="2"/>
+        <v>40615</v>
+      </c>
+      <c r="B64" s="1">
+        <v>40621</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <f t="shared" si="2"/>
+        <v>40643</v>
+      </c>
+      <c r="B65" s="1">
+        <v>40649</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f t="shared" si="2"/>
+        <v>40650</v>
+      </c>
+      <c r="B66" s="1">
+        <v>40656</v>
+      </c>
+      <c r="C66">
+        <v>9</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f t="shared" si="2"/>
+        <v>40657</v>
+      </c>
+      <c r="B67" s="1">
+        <v>40663</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" si="2"/>
+        <v>40664</v>
+      </c>
+      <c r="B68" s="1">
+        <v>40670</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f t="shared" si="2"/>
+        <v>40678</v>
+      </c>
+      <c r="B69" s="1">
+        <v>40684</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f t="shared" si="2"/>
+        <v>40685</v>
+      </c>
+      <c r="B70" s="1">
+        <v>40691</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f t="shared" si="2"/>
+        <v>40692</v>
+      </c>
+      <c r="B71" s="1">
+        <v>40698</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f t="shared" si="2"/>
+        <v>40706</v>
+      </c>
+      <c r="B72" s="1">
+        <v>40712</v>
+      </c>
+      <c r="C72">
+        <v>8</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <f t="shared" si="2"/>
+        <v>40713</v>
+      </c>
+      <c r="B73" s="1">
+        <v>40719</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <f t="shared" si="2"/>
+        <v>40720</v>
+      </c>
+      <c r="B74" s="1">
+        <v>40726</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <f t="shared" si="2"/>
+        <v>40727</v>
+      </c>
+      <c r="B75" s="1">
+        <v>40733</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f t="shared" si="2"/>
+        <v>40734</v>
+      </c>
+      <c r="B76" s="1">
+        <v>40740</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <f t="shared" si="2"/>
+        <v>40741</v>
+      </c>
+      <c r="B77" s="1">
+        <v>40747</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <f t="shared" si="2"/>
+        <v>40748</v>
+      </c>
+      <c r="B78" s="1">
+        <v>40754</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <f t="shared" si="2"/>
+        <v>40755</v>
+      </c>
+      <c r="B79" s="1">
+        <v>40761</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <f t="shared" si="2"/>
+        <v>40762</v>
+      </c>
+      <c r="B80" s="1">
+        <v>40768</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <f t="shared" si="2"/>
+        <v>40769</v>
+      </c>
+      <c r="B81" s="1">
+        <v>40775</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <f t="shared" si="2"/>
+        <v>40776</v>
+      </c>
+      <c r="B82" s="1">
+        <v>40782</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <f t="shared" si="2"/>
+        <v>40783</v>
+      </c>
+      <c r="B83" s="1">
+        <v>40789</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <f t="shared" si="2"/>
+        <v>40790</v>
+      </c>
+      <c r="B84" s="1">
+        <v>40796</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <f t="shared" si="2"/>
+        <v>40797</v>
+      </c>
+      <c r="B85" s="1">
+        <v>40803</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <f t="shared" si="2"/>
+        <v>40804</v>
+      </c>
+      <c r="B86" s="1">
+        <v>40810</v>
+      </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <f t="shared" si="2"/>
+        <v>40811</v>
+      </c>
+      <c r="B87" s="1">
+        <v>40817</v>
+      </c>
+      <c r="C87">
+        <v>9</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <f t="shared" si="2"/>
+        <v>40818</v>
+      </c>
+      <c r="B88" s="1">
+        <v>40824</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <f t="shared" si="2"/>
+        <v>40825</v>
+      </c>
+      <c r="B89" s="1">
+        <v>40831</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <f t="shared" si="2"/>
+        <v>40853</v>
+      </c>
+      <c r="B90" s="1">
+        <v>40859</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <f t="shared" si="2"/>
+        <v>40860</v>
+      </c>
+      <c r="B91" s="1">
+        <v>40866</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <f t="shared" si="2"/>
+        <v>40867</v>
+      </c>
+      <c r="B92" s="1">
+        <v>40873</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <f t="shared" si="2"/>
+        <v>40874</v>
+      </c>
+      <c r="B93" s="1">
+        <v>40880</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <f t="shared" si="2"/>
+        <v>40881</v>
+      </c>
+      <c r="B94" s="1">
+        <v>40887</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <f t="shared" si="2"/>
+        <v>40888</v>
+      </c>
+      <c r="B95" s="1">
+        <v>40894</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <f t="shared" si="2"/>
+        <v>40895</v>
+      </c>
+      <c r="B96" s="1">
+        <v>40901</v>
+      </c>
+      <c r="C96">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <f t="shared" ref="A97:A107" si="3">B97-6</f>
+        <v>40944</v>
+      </c>
+      <c r="B97" s="1">
+        <v>40950</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <f t="shared" si="3"/>
+        <v>40951</v>
+      </c>
+      <c r="B98" s="1">
+        <v>40957</v>
+      </c>
+      <c r="C98">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <f t="shared" si="3"/>
+        <v>40958</v>
+      </c>
+      <c r="B99" s="1">
+        <v>40964</v>
+      </c>
+      <c r="C99">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <f t="shared" si="3"/>
+        <v>40965</v>
+      </c>
+      <c r="B100" s="1">
+        <v>40971</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <f t="shared" si="3"/>
+        <v>40972</v>
+      </c>
+      <c r="B101" s="1">
+        <v>40978</v>
+      </c>
+      <c r="C101">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <f t="shared" si="3"/>
+        <v>40993</v>
+      </c>
+      <c r="B102" s="1">
+        <v>40999</v>
+      </c>
+      <c r="C102">
+        <v>8</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <f t="shared" si="3"/>
+        <v>41014</v>
+      </c>
+      <c r="B103" s="1">
+        <v>41020</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <f t="shared" si="3"/>
+        <v>41112</v>
+      </c>
+      <c r="B104" s="1">
+        <v>41118</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <f t="shared" si="3"/>
+        <v>41133</v>
+      </c>
+      <c r="B105" s="1">
+        <v>41139</v>
+      </c>
+      <c r="C105">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <f t="shared" si="3"/>
+        <v>41231</v>
+      </c>
+      <c r="B106" s="1">
+        <v>41237</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <f t="shared" si="3"/>
+        <v>41259</v>
+      </c>
+      <c r="B107" s="1">
+        <v>41265</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <f t="shared" ref="A108:A121" si="4">B108-6</f>
+        <v>41511</v>
+      </c>
+      <c r="B108" s="1">
+        <v>41517</v>
+      </c>
+      <c r="C108">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <f t="shared" si="4"/>
+        <v>41525</v>
+      </c>
+      <c r="B109" s="1">
+        <v>41531</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <f t="shared" si="4"/>
+        <v>41574</v>
+      </c>
+      <c r="B110" s="1">
+        <v>41580</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <f t="shared" si="4"/>
+        <v>41588</v>
+      </c>
+      <c r="B111" s="1">
+        <v>41594</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <f t="shared" si="4"/>
+        <v>41595</v>
+      </c>
+      <c r="B112" s="1">
+        <v>41601</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <f t="shared" si="4"/>
+        <v>41602</v>
+      </c>
+      <c r="B113" s="1">
+        <v>41608</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <f t="shared" si="4"/>
+        <v>41609</v>
+      </c>
+      <c r="B114" s="1">
+        <v>41615</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <f t="shared" si="4"/>
+        <v>41616</v>
+      </c>
+      <c r="B115" s="1">
+        <v>41622</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <f t="shared" si="4"/>
+        <v>41623</v>
+      </c>
+      <c r="B116" s="1">
+        <v>41629</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <f t="shared" si="4"/>
+        <v>41630</v>
+      </c>
+      <c r="B117" s="1">
+        <v>41636</v>
+      </c>
+      <c r="C117">
+        <v>9</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <f t="shared" si="4"/>
+        <v>41637</v>
+      </c>
+      <c r="B118" s="1">
+        <v>41643</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <f t="shared" si="4"/>
+        <v>41665</v>
+      </c>
+      <c r="B119" s="1">
+        <v>41671</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <f t="shared" si="4"/>
+        <v>41756</v>
+      </c>
+      <c r="B120" s="1">
+        <v>41762</v>
+      </c>
+      <c r="C120">
+        <v>8</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <f t="shared" si="4"/>
+        <v>41826</v>
+      </c>
+      <c r="B121" s="1">
+        <v>41832</v>
+      </c>
+      <c r="C121">
+        <v>9</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <f t="shared" ref="A122:A156" si="5">B122-6</f>
+        <v>41833</v>
+      </c>
+      <c r="B122" s="1">
+        <v>41839</v>
+      </c>
+      <c r="C122">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <f t="shared" si="5"/>
+        <v>41840</v>
+      </c>
+      <c r="B123" s="1">
+        <v>41846</v>
+      </c>
+      <c r="C123">
+        <v>6</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <f t="shared" si="5"/>
+        <v>41847</v>
+      </c>
+      <c r="B124" s="1">
+        <v>41853</v>
+      </c>
+      <c r="C124">
+        <v>9</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <f t="shared" si="5"/>
+        <v>41966</v>
+      </c>
+      <c r="B125" s="1">
+        <v>41972</v>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <f t="shared" si="5"/>
+        <v>41973</v>
+      </c>
+      <c r="B126" s="1">
+        <v>41979</v>
+      </c>
+      <c r="C126">
+        <v>9</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <f t="shared" si="5"/>
+        <v>41980</v>
+      </c>
+      <c r="B127" s="1">
+        <v>41986</v>
+      </c>
+      <c r="C127">
+        <v>10</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <f t="shared" si="5"/>
+        <v>41987</v>
+      </c>
+      <c r="B128" s="1">
+        <v>41993</v>
+      </c>
+      <c r="C128">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <f t="shared" si="5"/>
+        <v>42050</v>
+      </c>
+      <c r="B129" s="1">
+        <v>42056</v>
+      </c>
+      <c r="C129">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <f t="shared" si="5"/>
+        <v>42057</v>
+      </c>
+      <c r="B130" s="1">
+        <v>42063</v>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <f t="shared" si="5"/>
+        <v>42064</v>
+      </c>
+      <c r="B131" s="1">
+        <v>42070</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <f t="shared" si="5"/>
+        <v>42071</v>
+      </c>
+      <c r="B132" s="1">
+        <v>42077</v>
+      </c>
+      <c r="C132">
+        <v>9</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <f t="shared" si="5"/>
+        <v>42078</v>
+      </c>
+      <c r="B133" s="1">
+        <v>42084</v>
+      </c>
+      <c r="C133">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <f t="shared" si="5"/>
+        <v>42085</v>
+      </c>
+      <c r="B134" s="1">
+        <v>42091</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <f t="shared" si="5"/>
+        <v>42106</v>
+      </c>
+      <c r="B135" s="1">
+        <v>42112</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <f t="shared" si="5"/>
+        <v>42113</v>
+      </c>
+      <c r="B136" s="1">
+        <v>42119</v>
+      </c>
+      <c r="C136">
+        <v>8</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <f t="shared" si="5"/>
+        <v>42120</v>
+      </c>
+      <c r="B137" s="1">
+        <v>42126</v>
+      </c>
+      <c r="C137">
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <f t="shared" si="5"/>
+        <v>42127</v>
+      </c>
+      <c r="B138" s="1">
+        <v>42133</v>
+      </c>
+      <c r="C138">
+        <v>7</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <f t="shared" si="5"/>
+        <v>42148</v>
+      </c>
+      <c r="B139" s="1">
+        <v>42154</v>
+      </c>
+      <c r="C139">
+        <v>9</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <f t="shared" si="5"/>
+        <v>42155</v>
+      </c>
+      <c r="B140" s="1">
+        <v>42161</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <f t="shared" si="5"/>
+        <v>42162</v>
+      </c>
+      <c r="B141" s="1">
+        <v>42168</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <f t="shared" si="5"/>
+        <v>42169</v>
+      </c>
+      <c r="B142" s="1">
+        <v>42175</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <f t="shared" si="5"/>
+        <v>42183</v>
+      </c>
+      <c r="B143" s="1">
+        <v>42189</v>
+      </c>
+      <c r="C143">
+        <v>6</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <f t="shared" si="5"/>
+        <v>42190</v>
+      </c>
+      <c r="B144" s="1">
+        <v>42196</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <f t="shared" si="5"/>
+        <v>42197</v>
+      </c>
+      <c r="B145" s="1">
+        <v>42203</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <f t="shared" si="5"/>
+        <v>42204</v>
+      </c>
+      <c r="B146" s="1">
+        <v>42210</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <f t="shared" si="5"/>
+        <v>42211</v>
+      </c>
+      <c r="B147" s="1">
+        <v>42217</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <f t="shared" si="5"/>
+        <v>42218</v>
+      </c>
+      <c r="B148" s="1">
+        <v>42224</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <f t="shared" si="5"/>
+        <v>42225</v>
+      </c>
+      <c r="B149" s="1">
+        <v>42231</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <f t="shared" si="5"/>
+        <v>42232</v>
+      </c>
+      <c r="B150" s="1">
+        <v>42238</v>
+      </c>
+      <c r="C150">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <f t="shared" si="5"/>
+        <v>42239</v>
+      </c>
+      <c r="B151" s="1">
+        <v>42245</v>
+      </c>
+      <c r="C151">
+        <v>8</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <f t="shared" si="5"/>
+        <v>42246</v>
+      </c>
+      <c r="B152" s="1">
+        <v>42252</v>
+      </c>
+      <c r="C152">
+        <v>9</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <f t="shared" si="5"/>
+        <v>42253</v>
+      </c>
+      <c r="B153" s="1">
+        <v>42259</v>
+      </c>
+      <c r="C153">
+        <v>8</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <f t="shared" si="5"/>
+        <v>42260</v>
+      </c>
+      <c r="B154" s="1">
+        <v>42266</v>
+      </c>
+      <c r="C154">
+        <v>9</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <f t="shared" si="5"/>
+        <v>42267</v>
+      </c>
+      <c r="B155" s="1">
+        <v>42273</v>
+      </c>
+      <c r="C155">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <f t="shared" si="5"/>
+        <v>42274</v>
+      </c>
+      <c r="B156" s="1">
+        <v>42280</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <f t="shared" ref="A157:A220" si="6">B157-6</f>
+        <v>42281</v>
+      </c>
+      <c r="B157" s="1">
+        <v>42287</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <f t="shared" si="6"/>
+        <v>42288</v>
+      </c>
+      <c r="B158" s="1">
+        <v>42294</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <f t="shared" si="6"/>
+        <v>42295</v>
+      </c>
+      <c r="B159" s="1">
+        <v>42301</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <f t="shared" si="6"/>
+        <v>42302</v>
+      </c>
+      <c r="B160" s="1">
+        <v>42308</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <f t="shared" si="6"/>
+        <v>42309</v>
+      </c>
+      <c r="B161" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <f t="shared" si="6"/>
+        <v>42316</v>
+      </c>
+      <c r="B162" s="1">
+        <v>42322</v>
+      </c>
+      <c r="C162">
+        <v>5</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <f t="shared" si="6"/>
+        <v>42323</v>
+      </c>
+      <c r="B163" s="1">
+        <v>42329</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <f t="shared" si="6"/>
+        <v>42330</v>
+      </c>
+      <c r="B164" s="1">
+        <v>42336</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <f t="shared" si="6"/>
+        <v>42337</v>
+      </c>
+      <c r="B165" s="1">
+        <v>42343</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <f t="shared" si="6"/>
+        <v>42344</v>
+      </c>
+      <c r="B166" s="1">
+        <v>42350</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <f t="shared" si="6"/>
+        <v>42351</v>
+      </c>
+      <c r="B167" s="1">
+        <v>42357</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <f t="shared" si="6"/>
+        <v>42358</v>
+      </c>
+      <c r="B168" s="1">
+        <v>42364</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <f t="shared" si="6"/>
+        <v>42365</v>
+      </c>
+      <c r="B169" s="1">
+        <v>42371</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <f t="shared" si="6"/>
+        <v>42372</v>
+      </c>
+      <c r="B170" s="1">
+        <v>42378</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <f t="shared" si="6"/>
+        <v>42379</v>
+      </c>
+      <c r="B171" s="1">
+        <v>42385</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <f t="shared" si="6"/>
+        <v>42386</v>
+      </c>
+      <c r="B172" s="1">
+        <v>42392</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <f t="shared" si="6"/>
+        <v>42393</v>
+      </c>
+      <c r="B173" s="1">
+        <v>42399</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <f t="shared" si="6"/>
+        <v>42400</v>
+      </c>
+      <c r="B174" s="1">
+        <v>42406</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <f t="shared" si="6"/>
+        <v>42407</v>
+      </c>
+      <c r="B175" s="1">
+        <v>42413</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <f t="shared" si="6"/>
+        <v>42414</v>
+      </c>
+      <c r="B176" s="1">
+        <v>42420</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <f t="shared" si="6"/>
+        <v>42421</v>
+      </c>
+      <c r="B177" s="1">
+        <v>42427</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <f t="shared" si="6"/>
+        <v>42428</v>
+      </c>
+      <c r="B178" s="1">
+        <v>42434</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <f t="shared" si="6"/>
+        <v>42435</v>
+      </c>
+      <c r="B179" s="1">
+        <v>42441</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <f t="shared" si="6"/>
+        <v>42442</v>
+      </c>
+      <c r="B180" s="1">
+        <v>42448</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <f t="shared" si="6"/>
+        <v>42449</v>
+      </c>
+      <c r="B181" s="1">
+        <v>42455</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <f t="shared" si="6"/>
+        <v>42456</v>
+      </c>
+      <c r="B182" s="1">
+        <v>42462</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <f t="shared" si="6"/>
+        <v>42463</v>
+      </c>
+      <c r="B183" s="1">
+        <v>42469</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <f t="shared" si="6"/>
+        <v>42470</v>
+      </c>
+      <c r="B184" s="1">
+        <v>42476</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <f t="shared" si="6"/>
+        <v>42477</v>
+      </c>
+      <c r="B185" s="1">
+        <v>42483</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <f t="shared" si="6"/>
+        <v>42484</v>
+      </c>
+      <c r="B186" s="1">
+        <v>42490</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <f t="shared" si="6"/>
+        <v>42491</v>
+      </c>
+      <c r="B187" s="1">
+        <v>42497</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <f t="shared" si="6"/>
+        <v>42498</v>
+      </c>
+      <c r="B188" s="1">
+        <v>42504</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <f t="shared" si="6"/>
+        <v>42505</v>
+      </c>
+      <c r="B189" s="1">
+        <v>42511</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <f t="shared" si="6"/>
+        <v>42512</v>
+      </c>
+      <c r="B190" s="1">
+        <v>42518</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <f t="shared" si="6"/>
+        <v>42519</v>
+      </c>
+      <c r="B191" s="1">
+        <v>42525</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <f t="shared" si="6"/>
+        <v>42526</v>
+      </c>
+      <c r="B192" s="1">
+        <v>42532</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <f t="shared" si="6"/>
+        <v>42533</v>
+      </c>
+      <c r="B193" s="1">
+        <v>42539</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <f t="shared" si="6"/>
+        <v>42540</v>
+      </c>
+      <c r="B194" s="1">
+        <v>42546</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <f t="shared" si="6"/>
+        <v>42547</v>
+      </c>
+      <c r="B195" s="1">
+        <v>42553</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <f t="shared" si="6"/>
+        <v>42554</v>
+      </c>
+      <c r="B196" s="1">
+        <v>42560</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <f t="shared" si="6"/>
+        <v>42561</v>
+      </c>
+      <c r="B197" s="1">
+        <v>42567</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <f t="shared" si="6"/>
+        <v>42568</v>
+      </c>
+      <c r="B198" s="1">
+        <v>42574</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <f t="shared" si="6"/>
+        <v>42575</v>
+      </c>
+      <c r="B199" s="1">
+        <v>42581</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <f t="shared" si="6"/>
+        <v>42582</v>
+      </c>
+      <c r="B200" s="1">
+        <v>42588</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <f t="shared" si="6"/>
+        <v>42589</v>
+      </c>
+      <c r="B201" s="1">
+        <v>42595</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <f t="shared" si="6"/>
+        <v>42596</v>
+      </c>
+      <c r="B202" s="1">
+        <v>42602</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <f t="shared" si="6"/>
+        <v>42603</v>
+      </c>
+      <c r="B203" s="1">
+        <v>42609</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <f t="shared" si="6"/>
+        <v>42610</v>
+      </c>
+      <c r="B204" s="1">
+        <v>42616</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <f t="shared" si="6"/>
+        <v>42617</v>
+      </c>
+      <c r="B205" s="1">
+        <v>42623</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <f t="shared" si="6"/>
+        <v>42624</v>
+      </c>
+      <c r="B206" s="1">
+        <v>42630</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <f t="shared" si="6"/>
+        <v>42631</v>
+      </c>
+      <c r="B207" s="1">
+        <v>42637</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <f t="shared" si="6"/>
+        <v>42638</v>
+      </c>
+      <c r="B208" s="1">
+        <v>42644</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <f t="shared" si="6"/>
+        <v>42645</v>
+      </c>
+      <c r="B209" s="1">
+        <v>42651</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <f t="shared" si="6"/>
+        <v>42652</v>
+      </c>
+      <c r="B210" s="1">
+        <v>42658</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <f t="shared" si="6"/>
+        <v>42659</v>
+      </c>
+      <c r="B211" s="1">
+        <v>42665</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <f t="shared" si="6"/>
+        <v>42666</v>
+      </c>
+      <c r="B212" s="1">
+        <v>42672</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <f t="shared" si="6"/>
+        <v>42673</v>
+      </c>
+      <c r="B213" s="1">
+        <v>42679</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <f t="shared" si="6"/>
+        <v>42680</v>
+      </c>
+      <c r="B214" s="1">
+        <v>42686</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <f t="shared" si="6"/>
+        <v>42687</v>
+      </c>
+      <c r="B215" s="1">
+        <v>42693</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <f t="shared" si="6"/>
+        <v>42694</v>
+      </c>
+      <c r="B216" s="1">
+        <v>42700</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <f t="shared" si="6"/>
+        <v>42701</v>
+      </c>
+      <c r="B217" s="1">
+        <v>42707</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <f t="shared" si="6"/>
+        <v>42708</v>
+      </c>
+      <c r="B218" s="1">
+        <v>42714</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <f t="shared" si="6"/>
+        <v>42715</v>
+      </c>
+      <c r="B219" s="1">
+        <v>42721</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <f t="shared" si="6"/>
+        <v>42722</v>
+      </c>
+      <c r="B220" s="1">
+        <v>42728</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <f t="shared" ref="A221:A284" si="7">B221-6</f>
+        <v>42729</v>
+      </c>
+      <c r="B221" s="1">
+        <v>42735</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <f t="shared" si="7"/>
+        <v>42736</v>
+      </c>
+      <c r="B222" s="1">
+        <v>42742</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <f t="shared" si="7"/>
+        <v>42743</v>
+      </c>
+      <c r="B223" s="1">
+        <v>42749</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <f t="shared" si="7"/>
+        <v>42750</v>
+      </c>
+      <c r="B224" s="1">
+        <v>42756</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <f t="shared" si="7"/>
+        <v>42757</v>
+      </c>
+      <c r="B225" s="1">
+        <v>42763</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <f t="shared" si="7"/>
+        <v>42764</v>
+      </c>
+      <c r="B226" s="1">
+        <v>42770</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <f t="shared" si="7"/>
+        <v>42771</v>
+      </c>
+      <c r="B227" s="1">
+        <v>42777</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <f t="shared" si="7"/>
+        <v>42778</v>
+      </c>
+      <c r="B228" s="1">
+        <v>42784</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <f t="shared" si="7"/>
+        <v>42785</v>
+      </c>
+      <c r="B229" s="1">
+        <v>42791</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <f t="shared" si="7"/>
+        <v>42792</v>
+      </c>
+      <c r="B230" s="1">
+        <v>42798</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <f t="shared" si="7"/>
+        <v>42799</v>
+      </c>
+      <c r="B231" s="1">
+        <v>42805</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <f t="shared" si="7"/>
+        <v>42806</v>
+      </c>
+      <c r="B232" s="1">
+        <v>42812</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <f t="shared" si="7"/>
+        <v>42813</v>
+      </c>
+      <c r="B233" s="1">
+        <v>42819</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <f t="shared" si="7"/>
+        <v>42820</v>
+      </c>
+      <c r="B234" s="1">
+        <v>42826</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <f t="shared" si="7"/>
+        <v>42827</v>
+      </c>
+      <c r="B235" s="1">
+        <v>42833</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <f t="shared" si="7"/>
+        <v>42834</v>
+      </c>
+      <c r="B236" s="1">
+        <v>42840</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <f t="shared" si="7"/>
+        <v>42841</v>
+      </c>
+      <c r="B237" s="1">
+        <v>42847</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <f t="shared" si="7"/>
+        <v>42848</v>
+      </c>
+      <c r="B238" s="1">
+        <v>42854</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <f t="shared" si="7"/>
+        <v>42855</v>
+      </c>
+      <c r="B239" s="1">
+        <v>42861</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <f t="shared" si="7"/>
+        <v>42862</v>
+      </c>
+      <c r="B240" s="1">
+        <v>42868</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <f t="shared" si="7"/>
+        <v>42869</v>
+      </c>
+      <c r="B241" s="1">
+        <v>42875</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <f t="shared" si="7"/>
+        <v>42876</v>
+      </c>
+      <c r="B242" s="1">
+        <v>42882</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <f t="shared" si="7"/>
+        <v>42883</v>
+      </c>
+      <c r="B243" s="1">
+        <v>42889</v>
+      </c>
+      <c r="C243">
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <f t="shared" si="7"/>
+        <v>42890</v>
+      </c>
+      <c r="B244" s="1">
+        <v>42896</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <f t="shared" si="7"/>
+        <v>42897</v>
+      </c>
+      <c r="B245" s="1">
+        <v>42903</v>
+      </c>
+      <c r="C245">
+        <v>2</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <f t="shared" si="7"/>
+        <v>42904</v>
+      </c>
+      <c r="B246" s="1">
+        <v>42910</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <f t="shared" si="7"/>
+        <v>42911</v>
+      </c>
+      <c r="B247" s="1">
+        <v>42917</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <f t="shared" si="7"/>
+        <v>42918</v>
+      </c>
+      <c r="B248" s="1">
+        <v>42924</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <f t="shared" si="7"/>
+        <v>42925</v>
+      </c>
+      <c r="B249" s="1">
+        <v>42931</v>
+      </c>
+      <c r="C249">
+        <v>2</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <f t="shared" si="7"/>
+        <v>42932</v>
+      </c>
+      <c r="B250" s="1">
+        <v>42938</v>
+      </c>
+      <c r="C250">
+        <v>2</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <f t="shared" si="7"/>
+        <v>42939</v>
+      </c>
+      <c r="B251" s="1">
+        <v>42945</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <f t="shared" si="7"/>
+        <v>42946</v>
+      </c>
+      <c r="B252" s="1">
+        <v>42952</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <f t="shared" si="7"/>
+        <v>42953</v>
+      </c>
+      <c r="B253" s="1">
+        <v>42959</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <f t="shared" si="7"/>
+        <v>42960</v>
+      </c>
+      <c r="B254" s="1">
+        <v>42966</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <f t="shared" si="7"/>
+        <v>42967</v>
+      </c>
+      <c r="B255" s="1">
+        <v>42973</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <f t="shared" si="7"/>
+        <v>42974</v>
+      </c>
+      <c r="B256" s="1">
+        <v>42980</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <f t="shared" si="7"/>
+        <v>42981</v>
+      </c>
+      <c r="B257" s="1">
+        <v>42987</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <f t="shared" si="7"/>
+        <v>42988</v>
+      </c>
+      <c r="B258" s="1">
+        <v>42994</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <f t="shared" si="7"/>
+        <v>42995</v>
+      </c>
+      <c r="B259" s="1">
+        <v>43001</v>
+      </c>
+      <c r="C259">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <f t="shared" si="7"/>
+        <v>43002</v>
+      </c>
+      <c r="B260" s="1">
+        <v>43008</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <f t="shared" si="7"/>
+        <v>43009</v>
+      </c>
+      <c r="B261" s="1">
+        <v>43015</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <f t="shared" si="7"/>
+        <v>43016</v>
+      </c>
+      <c r="B262" s="1">
+        <v>43022</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <f t="shared" si="7"/>
+        <v>43023</v>
+      </c>
+      <c r="B263" s="1">
+        <v>43029</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <f t="shared" si="7"/>
+        <v>43030</v>
+      </c>
+      <c r="B264" s="1">
+        <v>43036</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <f t="shared" si="7"/>
+        <v>43037</v>
+      </c>
+      <c r="B265" s="1">
+        <v>43043</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <f t="shared" si="7"/>
+        <v>43044</v>
+      </c>
+      <c r="B266" s="1">
+        <v>43050</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <f t="shared" si="7"/>
+        <v>43051</v>
+      </c>
+      <c r="B267" s="1">
+        <v>43057</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <f t="shared" si="7"/>
+        <v>43058</v>
+      </c>
+      <c r="B268" s="1">
+        <v>43064</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <f t="shared" si="7"/>
+        <v>43065</v>
+      </c>
+      <c r="B269" s="1">
+        <v>43071</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <f t="shared" si="7"/>
+        <v>43072</v>
+      </c>
+      <c r="B270" s="1">
+        <v>43078</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <f t="shared" si="7"/>
+        <v>43079</v>
+      </c>
+      <c r="B271" s="1">
+        <v>43085</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <f t="shared" si="7"/>
+        <v>43086</v>
+      </c>
+      <c r="B272" s="1">
+        <v>43092</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <f t="shared" si="7"/>
+        <v>43093</v>
+      </c>
+      <c r="B273" s="1">
+        <v>43099</v>
+      </c>
+      <c r="C273">
+        <v>3</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <f t="shared" si="7"/>
+        <v>43100</v>
+      </c>
+      <c r="B274" s="1">
+        <v>43106</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <f t="shared" si="7"/>
+        <v>43107</v>
+      </c>
+      <c r="B275" s="1">
+        <v>43113</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <f t="shared" si="7"/>
+        <v>43114</v>
+      </c>
+      <c r="B276" s="1">
+        <v>43120</v>
+      </c>
+      <c r="C276">
+        <v>3</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <f t="shared" si="7"/>
+        <v>43121</v>
+      </c>
+      <c r="B277" s="1">
+        <v>43127</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <f t="shared" si="7"/>
+        <v>43128</v>
+      </c>
+      <c r="B278" s="1">
+        <v>43134</v>
+      </c>
+      <c r="C278">
+        <v>3</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <f t="shared" si="7"/>
+        <v>43135</v>
+      </c>
+      <c r="B279" s="1">
+        <v>43141</v>
+      </c>
+      <c r="C279">
+        <v>3</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <f t="shared" si="7"/>
+        <v>43142</v>
+      </c>
+      <c r="B280" s="1">
+        <v>43148</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <f t="shared" si="7"/>
+        <v>43149</v>
+      </c>
+      <c r="B281" s="1">
+        <v>43155</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <f t="shared" si="7"/>
+        <v>43156</v>
+      </c>
+      <c r="B282" s="1">
+        <v>43162</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <f t="shared" si="7"/>
+        <v>43163</v>
+      </c>
+      <c r="B283" s="1">
+        <v>43169</v>
+      </c>
+      <c r="C283">
+        <v>3</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <f t="shared" si="7"/>
+        <v>43170</v>
+      </c>
+      <c r="B284" s="1">
+        <v>43176</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <f t="shared" ref="A285:A310" si="8">B285-6</f>
+        <v>43177</v>
+      </c>
+      <c r="B285" s="1">
+        <v>43183</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <f t="shared" si="8"/>
+        <v>43184</v>
+      </c>
+      <c r="B286" s="1">
+        <v>43190</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <f t="shared" si="8"/>
+        <v>43191</v>
+      </c>
+      <c r="B287" s="1">
+        <v>43197</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <f t="shared" si="8"/>
+        <v>43198</v>
+      </c>
+      <c r="B288" s="1">
+        <v>43204</v>
+      </c>
+      <c r="C288">
+        <v>3</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <f t="shared" si="8"/>
+        <v>43205</v>
+      </c>
+      <c r="B289" s="1">
+        <v>43211</v>
+      </c>
+      <c r="C289">
+        <v>3</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <f t="shared" si="8"/>
+        <v>43212</v>
+      </c>
+      <c r="B290" s="1">
+        <v>43218</v>
+      </c>
+      <c r="C290">
+        <v>3</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <f t="shared" si="8"/>
+        <v>43219</v>
+      </c>
+      <c r="B291" s="1">
+        <v>43225</v>
+      </c>
+      <c r="C291">
+        <v>5</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <f t="shared" si="8"/>
+        <v>43226</v>
+      </c>
+      <c r="B292" s="1">
+        <v>43232</v>
+      </c>
+      <c r="C292">
+        <v>5</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <f t="shared" si="8"/>
+        <v>43233</v>
+      </c>
+      <c r="B293" s="1">
+        <v>43239</v>
+      </c>
+      <c r="C293">
+        <v>5</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <f t="shared" si="8"/>
+        <v>43240</v>
+      </c>
+      <c r="B294" s="1">
+        <v>43246</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <f t="shared" si="8"/>
+        <v>43247</v>
+      </c>
+      <c r="B295" s="1">
+        <v>43253</v>
+      </c>
+      <c r="C295">
+        <v>4</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <f t="shared" si="8"/>
+        <v>43254</v>
+      </c>
+      <c r="B296" s="1">
+        <v>43260</v>
+      </c>
+      <c r="C296">
+        <v>4</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <f t="shared" si="8"/>
+        <v>43261</v>
+      </c>
+      <c r="B297" s="1">
+        <v>43267</v>
+      </c>
+      <c r="C297">
+        <v>4</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <f t="shared" si="8"/>
+        <v>43268</v>
+      </c>
+      <c r="B298" s="1">
+        <v>43274</v>
+      </c>
+      <c r="C298">
+        <v>6</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <f t="shared" si="8"/>
+        <v>43275</v>
+      </c>
+      <c r="B299" s="1">
+        <v>43281</v>
+      </c>
+      <c r="C299">
+        <v>3</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <f t="shared" si="8"/>
+        <v>43282</v>
+      </c>
+      <c r="B300" s="1">
+        <v>43288</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <f t="shared" si="8"/>
+        <v>43289</v>
+      </c>
+      <c r="B301" s="1">
+        <v>43295</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <f t="shared" si="8"/>
+        <v>43296</v>
+      </c>
+      <c r="B302" s="1">
+        <v>43302</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <f t="shared" si="8"/>
+        <v>43303</v>
+      </c>
+      <c r="B303" s="1">
+        <v>43309</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <f t="shared" si="8"/>
+        <v>43310</v>
+      </c>
+      <c r="B304" s="1">
+        <v>43316</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <f t="shared" si="8"/>
+        <v>43317</v>
+      </c>
+      <c r="B305" s="1">
+        <v>43323</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <f t="shared" si="8"/>
+        <v>43324</v>
+      </c>
+      <c r="B306" s="1">
+        <v>43330</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <f t="shared" si="8"/>
+        <v>43331</v>
+      </c>
+      <c r="B307" s="1">
+        <v>43337</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <f t="shared" si="8"/>
+        <v>43338</v>
+      </c>
+      <c r="B308" s="1">
+        <v>43344</v>
+      </c>
+      <c r="C308">
+        <v>3</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <f t="shared" si="8"/>
+        <v>43345</v>
+      </c>
+      <c r="B309" s="1">
+        <v>43351</v>
+      </c>
+      <c r="C309">
+        <v>3</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <f t="shared" si="8"/>
+        <v>43352</v>
+      </c>
+      <c r="B310" s="1">
+        <v>43358</v>
+      </c>
+      <c r="C310">
+        <v>3</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>